--- a/EXCEL.xlsx
+++ b/EXCEL.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="30" windowWidth="23715" windowHeight="10050" firstSheet="2" activeTab="5"/>
+    <workbookView xWindow="120" yWindow="30" windowWidth="20640" windowHeight="10050" firstSheet="4" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -167,7 +167,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="267">
   <si>
     <t>fila[]</t>
   </si>
@@ -947,13 +947,34 @@
   </si>
   <si>
     <t>Metodos de clase</t>
+  </si>
+  <si>
+    <t>CTA</t>
+  </si>
+  <si>
+    <t>COMPRA</t>
+  </si>
+  <si>
+    <t>SALDO</t>
+  </si>
+  <si>
+    <t>DUPLICADO</t>
+  </si>
+  <si>
+    <t>COD ENTI</t>
+  </si>
+  <si>
+    <t>TIPO ENT</t>
+  </si>
+  <si>
+    <t>VINO TITO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1071,6 +1092,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="14">
     <fill>
@@ -1165,7 +1194,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1281,6 +1310,16 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2213,15 +2252,23 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:N41"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.85546875" customWidth="1"/>
+    <col min="6" max="7" width="11.42578125" style="1"/>
+    <col min="9" max="9" width="11.42578125" style="1"/>
+    <col min="10" max="10" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="39" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="50" t="s">
         <v>221</v>
       </c>
@@ -2230,8 +2277,13 @@
       <c r="D1" s="50"/>
       <c r="E1" s="50"/>
       <c r="F1" s="50"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+    </row>
+    <row r="2" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>222</v>
       </c>
@@ -2239,71 +2291,644 @@
         <v>223</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>190</v>
+        <v>265</v>
       </c>
       <c r="D2" s="13" t="s">
+        <v>264</v>
+      </c>
+      <c r="E2" s="13" t="s">
         <v>224</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="F2" s="57" t="s">
         <v>225</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="G2" s="57" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H2" s="13" t="s">
+        <v>260</v>
+      </c>
+      <c r="I2" s="57" t="s">
+        <v>262</v>
+      </c>
+      <c r="J2" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="K2" s="13" t="s">
+        <v>200</v>
+      </c>
+      <c r="M2" s="23">
+        <v>100</v>
+      </c>
+      <c r="N2" s="23" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="36">
         <v>43789</v>
       </c>
       <c r="B3" s="16" t="s">
         <v>226</v>
       </c>
-      <c r="C3" s="16">
+      <c r="C3" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="D3" s="16">
         <v>1</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="E3" s="16" t="s">
         <v>227</v>
       </c>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="15"/>
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="15"/>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="15"/>
-      <c r="B6" s="16"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="15"/>
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
+      <c r="F3" s="59">
+        <v>4132.2299999999996</v>
+      </c>
+      <c r="G3" s="59"/>
+      <c r="H3" s="15">
+        <v>105</v>
+      </c>
+      <c r="I3" s="59">
+        <f>+F3-G3</f>
+        <v>4132.2299999999996</v>
+      </c>
+      <c r="J3" s="15" t="s">
+        <v>261</v>
+      </c>
+      <c r="K3" s="15">
+        <v>1153</v>
+      </c>
+      <c r="M3" s="20">
+        <v>101</v>
+      </c>
+      <c r="N3" s="21" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="36">
+        <v>43789</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>226</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="D4" s="16">
+        <v>1</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>227</v>
+      </c>
+      <c r="F4" s="59"/>
+      <c r="G4" s="59">
+        <v>5000</v>
+      </c>
+      <c r="H4" s="15">
+        <v>102</v>
+      </c>
+      <c r="I4" s="59">
+        <f t="shared" ref="I4:I15" si="0">+F4-G4</f>
+        <v>-5000</v>
+      </c>
+      <c r="J4" s="15" t="s">
+        <v>261</v>
+      </c>
+      <c r="K4" s="15">
+        <v>1153</v>
+      </c>
+      <c r="M4" s="22">
+        <v>102</v>
+      </c>
+      <c r="N4" s="22" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="36">
+        <v>43789</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>226</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="D5" s="16">
+        <v>1</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>227</v>
+      </c>
+      <c r="F5" s="59">
+        <v>867.77</v>
+      </c>
+      <c r="G5" s="59"/>
+      <c r="H5" s="15">
+        <v>204</v>
+      </c>
+      <c r="I5" s="59">
+        <f t="shared" si="0"/>
+        <v>867.77</v>
+      </c>
+      <c r="J5" s="15" t="s">
+        <v>261</v>
+      </c>
+      <c r="K5" s="15">
+        <v>1153</v>
+      </c>
+      <c r="M5" s="22">
+        <v>103</v>
+      </c>
+      <c r="N5" s="22" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="36">
+        <v>43790</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>263</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="D6" s="16">
+        <v>4</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>266</v>
+      </c>
+      <c r="F6" s="59"/>
+      <c r="G6" s="59">
+        <v>85.71</v>
+      </c>
+      <c r="H6" s="15"/>
+      <c r="I6" s="59">
+        <f t="shared" si="0"/>
+        <v>-85.71</v>
+      </c>
+      <c r="J6" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="K6" s="15">
+        <v>1154</v>
+      </c>
+      <c r="M6" s="22">
+        <v>104</v>
+      </c>
+      <c r="N6" s="22" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="36">
+        <v>43790</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>263</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="D7" s="16">
+        <v>4</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>266</v>
+      </c>
+      <c r="F7" s="59">
+        <v>120</v>
+      </c>
+      <c r="G7" s="59"/>
+      <c r="H7" s="15">
+        <v>102</v>
+      </c>
+      <c r="I7" s="59">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+      <c r="J7" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="K7" s="15">
+        <v>1154</v>
+      </c>
+      <c r="M7" s="20">
+        <v>105</v>
+      </c>
+      <c r="N7" s="20" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="36">
+        <v>43790</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>263</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="D8" s="16">
+        <v>4</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>266</v>
+      </c>
+      <c r="F8" s="59"/>
+      <c r="G8" s="59">
+        <v>34.29</v>
+      </c>
+      <c r="H8" s="15">
+        <v>203</v>
+      </c>
+      <c r="I8" s="59">
+        <f t="shared" si="0"/>
+        <v>-34.29</v>
+      </c>
+      <c r="J8" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="K8" s="15">
+        <v>1154</v>
+      </c>
+      <c r="M8" s="20">
+        <v>106</v>
+      </c>
+      <c r="N8" s="20" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="15"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="59"/>
+      <c r="G9" s="59"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="59">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
+      <c r="M9" s="20">
+        <v>107</v>
+      </c>
+      <c r="N9" s="20" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="15"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="59"/>
+      <c r="G10" s="59"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="59">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J10" s="15"/>
+      <c r="K10" s="15"/>
+      <c r="M10" s="20">
+        <v>108</v>
+      </c>
+      <c r="N10" s="20" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="15"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="59"/>
+      <c r="G11" s="59"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="59">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J11" s="15"/>
+      <c r="K11" s="15"/>
+      <c r="M11" s="23">
+        <v>200</v>
+      </c>
+      <c r="N11" s="23" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="15"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="59"/>
+      <c r="G12" s="59"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="59">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J12" s="15"/>
+      <c r="K12" s="15"/>
+      <c r="M12" s="20">
+        <v>201</v>
+      </c>
+      <c r="N12" s="20" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="15"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="59"/>
+      <c r="G13" s="59"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="59">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J13" s="15"/>
+      <c r="K13" s="15"/>
+      <c r="M13" s="22">
+        <v>202</v>
+      </c>
+      <c r="N13" s="22" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="15"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="59"/>
+      <c r="G14" s="59"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="59">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J14" s="15"/>
+      <c r="K14" s="15"/>
+      <c r="M14" s="22">
+        <v>203</v>
+      </c>
+      <c r="N14" s="22" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F15" s="58">
+        <f>SUM(F3:F14)</f>
+        <v>5120</v>
+      </c>
+      <c r="G15" s="58">
+        <f>SUM(G3:G14)</f>
+        <v>5120</v>
+      </c>
+      <c r="H15" s="56"/>
+      <c r="I15" s="58">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M15" s="22">
+        <v>204</v>
+      </c>
+      <c r="N15" s="22" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M16" s="22">
+        <v>205</v>
+      </c>
+      <c r="N16" s="22" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="17" spans="13:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M17" s="22">
+        <v>206</v>
+      </c>
+      <c r="N17" s="22" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="18" spans="13:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M18" s="20">
+        <v>208</v>
+      </c>
+      <c r="N18" s="20" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="19" spans="13:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M19" s="20">
+        <v>209</v>
+      </c>
+      <c r="N19" s="20" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="20" spans="13:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M20" s="20">
+        <v>210</v>
+      </c>
+      <c r="N20" s="21" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="21" spans="13:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M21" s="23">
+        <v>300</v>
+      </c>
+      <c r="N21" s="23" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="22" spans="13:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M22" s="20">
+        <v>301</v>
+      </c>
+      <c r="N22" s="21" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="23" spans="13:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M23" s="20">
+        <v>302</v>
+      </c>
+      <c r="N23" s="20" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="24" spans="13:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M24" s="20">
+        <v>303</v>
+      </c>
+      <c r="N24" s="21" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="25" spans="13:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M25" s="20">
+        <v>304</v>
+      </c>
+      <c r="N25" s="20" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="26" spans="13:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M26" s="20">
+        <v>305</v>
+      </c>
+      <c r="N26" s="20" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="27" spans="13:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M27" s="23">
+        <v>400</v>
+      </c>
+      <c r="N27" s="23" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="28" spans="13:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M28" s="22">
+        <v>401</v>
+      </c>
+      <c r="N28" s="22" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="29" spans="13:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M29" s="20">
+        <v>402</v>
+      </c>
+      <c r="N29" s="20" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="30" spans="13:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M30" s="20">
+        <v>403</v>
+      </c>
+      <c r="N30" s="20" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="31" spans="13:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M31" s="23">
+        <v>500</v>
+      </c>
+      <c r="N31" s="23" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="32" spans="13:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M32" s="22">
+        <v>501</v>
+      </c>
+      <c r="N32" s="22" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="33" spans="13:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M33" s="20">
+        <v>502</v>
+      </c>
+      <c r="N33" s="20" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="34" spans="13:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M34" s="22">
+        <v>503</v>
+      </c>
+      <c r="N34" s="22" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="35" spans="13:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M35" s="22">
+        <v>506</v>
+      </c>
+      <c r="N35" s="22" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="36" spans="13:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M36" s="22">
+        <v>507</v>
+      </c>
+      <c r="N36" s="22" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="37" spans="13:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M37" s="20">
+        <v>508</v>
+      </c>
+      <c r="N37" s="20" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="38" spans="13:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M38" s="22">
+        <v>509</v>
+      </c>
+      <c r="N38" s="22" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="39" spans="13:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M39" s="22">
+        <v>513</v>
+      </c>
+      <c r="N39" s="22" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="40" spans="13:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M40" s="20">
+        <v>515</v>
+      </c>
+      <c r="N40" s="20" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="41" spans="13:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M41" s="20">
+        <v>516</v>
+      </c>
+      <c r="N41" s="20" t="s">
+        <v>150</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A1:K1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2992,13 +3617,14 @@
   <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.7109375" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -3381,8 +4007,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3725,7 +4351,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
@@ -3962,7 +4588,7 @@
   <dimension ref="A1:D41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection sqref="A1:B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4744,7 +5370,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L7"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H40" sqref="H40"/>
     </sheetView>
   </sheetViews>

--- a/EXCEL.xlsx
+++ b/EXCEL.xlsx
@@ -4,135 +4,25 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="30" windowWidth="20640" windowHeight="10050" firstSheet="4" activeTab="4"/>
+    <workbookView xWindow="120" yWindow="30" windowWidth="20640" windowHeight="10050" firstSheet="1" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
-    <sheet name="CLIENTE" sheetId="4" r:id="rId2"/>
+    <sheet name="CLIENTES" sheetId="8" r:id="rId2"/>
     <sheet name="VENTA" sheetId="2" r:id="rId3"/>
-    <sheet name="PRODUCTOS" sheetId="5" r:id="rId4"/>
-    <sheet name="PROVEEDORES" sheetId="7" r:id="rId5"/>
-    <sheet name="CLIENTES" sheetId="8" r:id="rId6"/>
-    <sheet name="PLAN CTA" sheetId="9" r:id="rId7"/>
-    <sheet name="MOVIMIENTOS" sheetId="10" r:id="rId8"/>
-    <sheet name="CONTABLE" sheetId="11" r:id="rId9"/>
-    <sheet name="LIBRO DIARI" sheetId="13" r:id="rId10"/>
-    <sheet name="DIAG PROCESO" sheetId="12" r:id="rId11"/>
+    <sheet name="PROVEEDORES" sheetId="7" r:id="rId4"/>
+    <sheet name="PRODUCTOS" sheetId="5" r:id="rId5"/>
+    <sheet name="MOVIMIENTOS" sheetId="10" r:id="rId6"/>
+    <sheet name="ENTIDADES" sheetId="4" r:id="rId7"/>
+    <sheet name="CONTABLE" sheetId="11" r:id="rId8"/>
+    <sheet name="LIBRO DIARI" sheetId="13" r:id="rId9"/>
+    <sheet name="DIAG PROCESO" sheetId="12" r:id="rId10"/>
   </sheets>
   <calcPr calcId="145621" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>Eugenio Arevalo</author>
-  </authors>
-  <commentList>
-    <comment ref="A6" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Eugenio Arevalo:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-bienes de cambio son bienes destinados a compra y venta que tienen el propósito de producir algún tipo de ganancia.
-Se conoce como bienes de cambio a aquellos valores pertenecientes al activo financiero en una institución, cuya pasibilidad de utilizarse en operaciones de compra-venta permite que la entidad obtenga valor a cambio. Un típico caso de bien de cambio son las mercaderías que una empresa produce.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B6" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Eugenio Arevalo:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
- bienes de cambio son bienes destinados a compra y venta que tienen el propósito de producir algún tipo de ganancia.
-Se conoce como bienes de cambio a aquellos valores pertenecientes al activo financiero en una institución, cuya pasibilidad de utilizarse en operaciones de compra-venta permite que la entidad obtenga valor a cambio. Un típico caso de bien de cambio son las mercaderías que una empresa produce.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B7" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Eugenio Arevalo:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-SON BIENES DE CAMBIO
-Adquiridos para su venta en el mismo estado (mercadería de reventa)</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B32" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Eugenio Arevalo:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-El costo de ventas, (también conocido como el costo de los bienes vendidos), se refiere al importe directo de la producción de los bienes vendidos por una empresa. Esta cantidad incluye el costo de los materiales y la mano de obra directamente utilizados para crear un producto o servicio.</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Eugenio Arevalo</author>
@@ -167,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="263">
   <si>
     <t>fila[]</t>
   </si>
@@ -811,24 +701,15 @@
     <t>getTipo</t>
   </si>
   <si>
-    <t xml:space="preserve">DEBE </t>
-  </si>
-  <si>
     <t>HABER</t>
   </si>
   <si>
-    <t>RP+</t>
-  </si>
-  <si>
     <t xml:space="preserve">INGRESOS Resultados Positivos  </t>
   </si>
   <si>
     <t>GASTOS (Resultados Negativos)</t>
   </si>
   <si>
-    <t>RN+</t>
-  </si>
-  <si>
     <t>OTROS INGRESOS (descuentos)</t>
   </si>
   <si>
@@ -889,12 +770,6 @@
     <t>PORCENTAJE DE UTILIDAD</t>
   </si>
   <si>
-    <t>A+</t>
-  </si>
-  <si>
-    <t>A-</t>
-  </si>
-  <si>
     <t>cuit</t>
   </si>
   <si>
@@ -968,12 +843,18 @@
   </si>
   <si>
     <t>VINO TITO</t>
+  </si>
+  <si>
+    <t>LISTADO DE ENTIDADES</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1014,43 +895,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFFFF00"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="0"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <b/>
       <u/>
       <sz val="11"/>
@@ -1062,13 +906,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1093,15 +930,62 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="9"/>
+      <color theme="0" tint="-0.14999847407452621"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="9"/>
+      <color theme="0"/>
+      <name val="Terminal"/>
+      <family val="3"/>
+      <charset val="255"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="0" tint="-0.14999847407452621"/>
+      <name val="Terminal"/>
+      <family val="3"/>
+      <charset val="255"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <name val="Terminal"/>
+      <family val="3"/>
+      <charset val="255"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="0"/>
+      <name val="Terminal"/>
+      <family val="3"/>
+      <charset val="255"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Terminal"/>
+      <family val="3"/>
+      <charset val="255"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="Terminal"/>
+      <family val="3"/>
+      <charset val="255"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFFFF00"/>
+      <name val="Terminal"/>
+      <family val="3"/>
+      <charset val="255"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1180,6 +1064,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC80000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1194,7 +1084,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1237,19 +1127,14 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="4" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="12" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="6" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1262,13 +1147,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="4" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1288,8 +1166,8 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1305,22 +1183,71 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="10" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="10" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="10" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="12" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="2" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -1328,6 +1255,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFC80000"/>
+      <color rgb="FFF4F0F6"/>
+      <color rgb="FF960000"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1340,16 +1274,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>710712</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>28472</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>352350</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>139869</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>173648</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1371,8 +1305,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5962650" y="400050"/>
-          <a:ext cx="6448350" cy="3324225"/>
+          <a:off x="710712" y="2885972"/>
+          <a:ext cx="5085542" cy="2621676"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2251,688 +2185,6 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N41"/>
-  <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="11.85546875" customWidth="1"/>
-    <col min="6" max="7" width="11.42578125" style="1"/>
-    <col min="9" max="9" width="11.42578125" style="1"/>
-    <col min="10" max="10" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="39" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="50" t="s">
-        <v>221</v>
-      </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
-    </row>
-    <row r="2" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
-        <v>222</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>223</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>265</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>264</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>224</v>
-      </c>
-      <c r="F2" s="57" t="s">
-        <v>225</v>
-      </c>
-      <c r="G2" s="57" t="s">
-        <v>215</v>
-      </c>
-      <c r="H2" s="13" t="s">
-        <v>260</v>
-      </c>
-      <c r="I2" s="57" t="s">
-        <v>262</v>
-      </c>
-      <c r="J2" s="13" t="s">
-        <v>207</v>
-      </c>
-      <c r="K2" s="13" t="s">
-        <v>200</v>
-      </c>
-      <c r="M2" s="23">
-        <v>100</v>
-      </c>
-      <c r="N2" s="23" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="36">
-        <v>43789</v>
-      </c>
-      <c r="B3" s="16" t="s">
-        <v>226</v>
-      </c>
-      <c r="C3" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="D3" s="16">
-        <v>1</v>
-      </c>
-      <c r="E3" s="16" t="s">
-        <v>227</v>
-      </c>
-      <c r="F3" s="59">
-        <v>4132.2299999999996</v>
-      </c>
-      <c r="G3" s="59"/>
-      <c r="H3" s="15">
-        <v>105</v>
-      </c>
-      <c r="I3" s="59">
-        <f>+F3-G3</f>
-        <v>4132.2299999999996</v>
-      </c>
-      <c r="J3" s="15" t="s">
-        <v>261</v>
-      </c>
-      <c r="K3" s="15">
-        <v>1153</v>
-      </c>
-      <c r="M3" s="20">
-        <v>101</v>
-      </c>
-      <c r="N3" s="21" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="36">
-        <v>43789</v>
-      </c>
-      <c r="B4" s="16" t="s">
-        <v>226</v>
-      </c>
-      <c r="C4" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="D4" s="16">
-        <v>1</v>
-      </c>
-      <c r="E4" s="16" t="s">
-        <v>227</v>
-      </c>
-      <c r="F4" s="59"/>
-      <c r="G4" s="59">
-        <v>5000</v>
-      </c>
-      <c r="H4" s="15">
-        <v>102</v>
-      </c>
-      <c r="I4" s="59">
-        <f t="shared" ref="I4:I15" si="0">+F4-G4</f>
-        <v>-5000</v>
-      </c>
-      <c r="J4" s="15" t="s">
-        <v>261</v>
-      </c>
-      <c r="K4" s="15">
-        <v>1153</v>
-      </c>
-      <c r="M4" s="22">
-        <v>102</v>
-      </c>
-      <c r="N4" s="22" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="36">
-        <v>43789</v>
-      </c>
-      <c r="B5" s="16" t="s">
-        <v>226</v>
-      </c>
-      <c r="C5" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="D5" s="16">
-        <v>1</v>
-      </c>
-      <c r="E5" s="16" t="s">
-        <v>227</v>
-      </c>
-      <c r="F5" s="59">
-        <v>867.77</v>
-      </c>
-      <c r="G5" s="59"/>
-      <c r="H5" s="15">
-        <v>204</v>
-      </c>
-      <c r="I5" s="59">
-        <f t="shared" si="0"/>
-        <v>867.77</v>
-      </c>
-      <c r="J5" s="15" t="s">
-        <v>261</v>
-      </c>
-      <c r="K5" s="15">
-        <v>1153</v>
-      </c>
-      <c r="M5" s="22">
-        <v>103</v>
-      </c>
-      <c r="N5" s="22" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="36">
-        <v>43790</v>
-      </c>
-      <c r="B6" s="16" t="s">
-        <v>263</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="D6" s="16">
-        <v>4</v>
-      </c>
-      <c r="E6" s="16" t="s">
-        <v>266</v>
-      </c>
-      <c r="F6" s="59"/>
-      <c r="G6" s="59">
-        <v>85.71</v>
-      </c>
-      <c r="H6" s="15"/>
-      <c r="I6" s="59">
-        <f t="shared" si="0"/>
-        <v>-85.71</v>
-      </c>
-      <c r="J6" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="K6" s="15">
-        <v>1154</v>
-      </c>
-      <c r="M6" s="22">
-        <v>104</v>
-      </c>
-      <c r="N6" s="22" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="36">
-        <v>43790</v>
-      </c>
-      <c r="B7" s="16" t="s">
-        <v>263</v>
-      </c>
-      <c r="C7" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="D7" s="16">
-        <v>4</v>
-      </c>
-      <c r="E7" s="16" t="s">
-        <v>266</v>
-      </c>
-      <c r="F7" s="59">
-        <v>120</v>
-      </c>
-      <c r="G7" s="59"/>
-      <c r="H7" s="15">
-        <v>102</v>
-      </c>
-      <c r="I7" s="59">
-        <f t="shared" si="0"/>
-        <v>120</v>
-      </c>
-      <c r="J7" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="K7" s="15">
-        <v>1154</v>
-      </c>
-      <c r="M7" s="20">
-        <v>105</v>
-      </c>
-      <c r="N7" s="20" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="36">
-        <v>43790</v>
-      </c>
-      <c r="B8" s="16" t="s">
-        <v>263</v>
-      </c>
-      <c r="C8" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="D8" s="16">
-        <v>4</v>
-      </c>
-      <c r="E8" s="16" t="s">
-        <v>266</v>
-      </c>
-      <c r="F8" s="59"/>
-      <c r="G8" s="59">
-        <v>34.29</v>
-      </c>
-      <c r="H8" s="15">
-        <v>203</v>
-      </c>
-      <c r="I8" s="59">
-        <f t="shared" si="0"/>
-        <v>-34.29</v>
-      </c>
-      <c r="J8" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="K8" s="15">
-        <v>1154</v>
-      </c>
-      <c r="M8" s="20">
-        <v>106</v>
-      </c>
-      <c r="N8" s="20" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="15"/>
-      <c r="B9" s="16"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="59"/>
-      <c r="G9" s="59"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="59">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J9" s="15"/>
-      <c r="K9" s="15"/>
-      <c r="M9" s="20">
-        <v>107</v>
-      </c>
-      <c r="N9" s="20" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="15"/>
-      <c r="B10" s="16"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="59"/>
-      <c r="G10" s="59"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="59">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J10" s="15"/>
-      <c r="K10" s="15"/>
-      <c r="M10" s="20">
-        <v>108</v>
-      </c>
-      <c r="N10" s="20" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="15"/>
-      <c r="B11" s="16"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="59"/>
-      <c r="G11" s="59"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="59">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J11" s="15"/>
-      <c r="K11" s="15"/>
-      <c r="M11" s="23">
-        <v>200</v>
-      </c>
-      <c r="N11" s="23" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="15"/>
-      <c r="B12" s="16"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="59"/>
-      <c r="G12" s="59"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="59">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J12" s="15"/>
-      <c r="K12" s="15"/>
-      <c r="M12" s="20">
-        <v>201</v>
-      </c>
-      <c r="N12" s="20" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="15"/>
-      <c r="B13" s="16"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="59"/>
-      <c r="G13" s="59"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="59">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J13" s="15"/>
-      <c r="K13" s="15"/>
-      <c r="M13" s="22">
-        <v>202</v>
-      </c>
-      <c r="N13" s="22" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="15"/>
-      <c r="B14" s="16"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="59"/>
-      <c r="G14" s="59"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="59">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J14" s="15"/>
-      <c r="K14" s="15"/>
-      <c r="M14" s="22">
-        <v>203</v>
-      </c>
-      <c r="N14" s="22" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F15" s="58">
-        <f>SUM(F3:F14)</f>
-        <v>5120</v>
-      </c>
-      <c r="G15" s="58">
-        <f>SUM(G3:G14)</f>
-        <v>5120</v>
-      </c>
-      <c r="H15" s="56"/>
-      <c r="I15" s="58">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M15" s="22">
-        <v>204</v>
-      </c>
-      <c r="N15" s="22" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="M16" s="22">
-        <v>205</v>
-      </c>
-      <c r="N16" s="22" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="17" spans="13:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="M17" s="22">
-        <v>206</v>
-      </c>
-      <c r="N17" s="22" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="18" spans="13:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="M18" s="20">
-        <v>208</v>
-      </c>
-      <c r="N18" s="20" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="19" spans="13:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="M19" s="20">
-        <v>209</v>
-      </c>
-      <c r="N19" s="20" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="20" spans="13:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="M20" s="20">
-        <v>210</v>
-      </c>
-      <c r="N20" s="21" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="21" spans="13:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="M21" s="23">
-        <v>300</v>
-      </c>
-      <c r="N21" s="23" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="22" spans="13:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="M22" s="20">
-        <v>301</v>
-      </c>
-      <c r="N22" s="21" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="23" spans="13:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="M23" s="20">
-        <v>302</v>
-      </c>
-      <c r="N23" s="20" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="24" spans="13:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="M24" s="20">
-        <v>303</v>
-      </c>
-      <c r="N24" s="21" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="25" spans="13:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="M25" s="20">
-        <v>304</v>
-      </c>
-      <c r="N25" s="20" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="26" spans="13:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="M26" s="20">
-        <v>305</v>
-      </c>
-      <c r="N26" s="20" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="27" spans="13:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="M27" s="23">
-        <v>400</v>
-      </c>
-      <c r="N27" s="23" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="28" spans="13:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="M28" s="22">
-        <v>401</v>
-      </c>
-      <c r="N28" s="22" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="29" spans="13:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="M29" s="20">
-        <v>402</v>
-      </c>
-      <c r="N29" s="20" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="30" spans="13:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="M30" s="20">
-        <v>403</v>
-      </c>
-      <c r="N30" s="20" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="31" spans="13:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="M31" s="23">
-        <v>500</v>
-      </c>
-      <c r="N31" s="23" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="32" spans="13:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="M32" s="22">
-        <v>501</v>
-      </c>
-      <c r="N32" s="22" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="33" spans="13:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="M33" s="20">
-        <v>502</v>
-      </c>
-      <c r="N33" s="20" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="34" spans="13:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="M34" s="22">
-        <v>503</v>
-      </c>
-      <c r="N34" s="22" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="35" spans="13:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="M35" s="22">
-        <v>506</v>
-      </c>
-      <c r="N35" s="22" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="36" spans="13:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="M36" s="22">
-        <v>507</v>
-      </c>
-      <c r="N36" s="22" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="37" spans="13:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="M37" s="20">
-        <v>508</v>
-      </c>
-      <c r="N37" s="20" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="38" spans="13:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="M38" s="22">
-        <v>509</v>
-      </c>
-      <c r="N38" s="22" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="39" spans="13:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="M39" s="22">
-        <v>513</v>
-      </c>
-      <c r="N39" s="22" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="40" spans="13:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="M40" s="20">
-        <v>515</v>
-      </c>
-      <c r="N40" s="20" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="41" spans="13:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="M41" s="20">
-        <v>516</v>
-      </c>
-      <c r="N41" s="20" t="s">
-        <v>150</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:K1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K23"/>
   <sheetViews>
@@ -2953,23 +2205,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="46" t="s">
-        <v>244</v>
-      </c>
-      <c r="B1" s="47" t="s">
-        <v>259</v>
-      </c>
-      <c r="C1" s="54" t="s">
-        <v>258</v>
-      </c>
-      <c r="D1" s="54"/>
-      <c r="E1" s="55" t="s">
-        <v>257</v>
-      </c>
-      <c r="F1" s="55"/>
+      <c r="A1" s="38" t="s">
+        <v>239</v>
+      </c>
+      <c r="B1" s="39" t="s">
+        <v>254</v>
+      </c>
+      <c r="C1" s="46" t="s">
+        <v>253</v>
+      </c>
+      <c r="D1" s="46"/>
+      <c r="E1" s="47" t="s">
+        <v>252</v>
+      </c>
+      <c r="F1" s="47"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="46" t="s">
+      <c r="A3" s="38" t="s">
         <v>212</v>
       </c>
     </row>
@@ -2979,60 +2231,60 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B5" s="46" t="s">
+      <c r="B5" s="38" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C6" s="44" t="s">
+      <c r="C6" s="36" t="s">
         <v>14</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D7" s="46" t="s">
-        <v>234</v>
+      <c r="D7" s="38" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D8" s="40" t="s">
-        <v>242</v>
+      <c r="D8" s="32" t="s">
+        <v>237</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F9" s="46" t="s">
+      <c r="F9" s="38" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C10" s="45" t="s">
+      <c r="C10" s="37" t="s">
+        <v>230</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="F10" s="32">
+        <v>9</v>
+      </c>
+      <c r="G10" s="3" t="s">
         <v>233</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="F10" s="40">
-        <v>9</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="G11" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="H11" s="42">
+      <c r="H11" s="34">
         <v>700</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="G12" s="41" t="s">
+      <c r="G12" s="33" t="s">
         <v>183</v>
       </c>
       <c r="H12">
@@ -3041,100 +2293,100 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="G13" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="H13" s="46" t="s">
+        <v>229</v>
+      </c>
+      <c r="H13" s="38" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="46" t="s">
+      <c r="A14" s="38" t="s">
         <v>212</v>
       </c>
-      <c r="I14" s="43" t="s">
-        <v>245</v>
-      </c>
-      <c r="J14" s="42">
+      <c r="I14" s="35" t="s">
+        <v>240</v>
+      </c>
+      <c r="J14" s="34">
         <v>1400</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B15" s="3" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B16" s="42" t="s">
-        <v>248</v>
-      </c>
-      <c r="C16" s="46" t="s">
+      <c r="B16" s="34" t="s">
+        <v>243</v>
+      </c>
+      <c r="C16" s="38" t="s">
         <v>208</v>
       </c>
-      <c r="I16" s="46" t="s">
+      <c r="I16" s="38" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.25">
       <c r="D17" s="3" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="K17" s="42">
+        <v>247</v>
+      </c>
+      <c r="K17" s="34">
         <f>+J14</f>
         <v>1400</v>
       </c>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C18" s="46" t="s">
+      <c r="C18" s="38" t="s">
         <v>208</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="K18" s="42">
+        <v>249</v>
+      </c>
+      <c r="K18" s="34">
         <f>+K17*0.95</f>
         <v>1330</v>
       </c>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.25">
       <c r="D19" s="3" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="K19" s="42">
+        <v>228</v>
+      </c>
+      <c r="K19" s="34">
         <f>+K18*21/100</f>
         <v>279.3</v>
       </c>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.25">
       <c r="D20" s="3" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="K20" s="42">
+        <v>248</v>
+      </c>
+      <c r="K20" s="34">
         <f>+K18+K19</f>
         <v>1609.3</v>
       </c>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.25">
       <c r="D21" s="3" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B22" s="42" t="s">
-        <v>249</v>
+      <c r="B22" s="34" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C23" s="3" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
     </row>
   </sheetData>
@@ -3151,15 +2403,237 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection sqref="A1:I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="3.85546875" style="10" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15" style="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.42578125" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="48" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="49" t="s">
+        <v>79</v>
+      </c>
+      <c r="B2" s="50" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2" s="50" t="s">
+        <v>81</v>
+      </c>
+      <c r="D2" s="49" t="s">
+        <v>82</v>
+      </c>
+      <c r="E2" s="49" t="s">
+        <v>83</v>
+      </c>
+      <c r="F2" s="49" t="s">
+        <v>84</v>
+      </c>
+      <c r="G2" s="49" t="s">
+        <v>85</v>
+      </c>
+      <c r="H2" s="51" t="s">
+        <v>78</v>
+      </c>
+      <c r="I2" s="49" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="52">
+        <v>1</v>
+      </c>
+      <c r="B3" s="53" t="s">
+        <v>89</v>
+      </c>
+      <c r="C3" s="53" t="s">
+        <v>88</v>
+      </c>
+      <c r="D3" s="53" t="s">
+        <v>90</v>
+      </c>
+      <c r="E3" s="53" t="s">
+        <v>95</v>
+      </c>
+      <c r="F3" s="53" t="s">
+        <v>96</v>
+      </c>
+      <c r="G3" s="54" t="s">
+        <v>97</v>
+      </c>
+      <c r="H3" s="55" t="s">
+        <v>87</v>
+      </c>
+      <c r="I3" s="53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="52">
+        <v>2</v>
+      </c>
+      <c r="B4" s="53" t="s">
+        <v>98</v>
+      </c>
+      <c r="C4" s="53" t="s">
+        <v>99</v>
+      </c>
+      <c r="D4" s="53" t="s">
+        <v>91</v>
+      </c>
+      <c r="E4" s="53" t="s">
+        <v>100</v>
+      </c>
+      <c r="F4" s="53" t="s">
+        <v>101</v>
+      </c>
+      <c r="G4" s="56" t="s">
+        <v>102</v>
+      </c>
+      <c r="H4" s="55" t="s">
+        <v>87</v>
+      </c>
+      <c r="I4" s="53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="52">
+        <v>3</v>
+      </c>
+      <c r="B5" s="53" t="s">
+        <v>103</v>
+      </c>
+      <c r="C5" s="53" t="s">
+        <v>104</v>
+      </c>
+      <c r="D5" s="53" t="s">
+        <v>93</v>
+      </c>
+      <c r="E5" s="53" t="s">
+        <v>105</v>
+      </c>
+      <c r="F5" s="53" t="s">
+        <v>106</v>
+      </c>
+      <c r="G5" s="56" t="s">
+        <v>107</v>
+      </c>
+      <c r="H5" s="55" t="s">
+        <v>87</v>
+      </c>
+      <c r="I5" s="53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="52">
+        <v>4</v>
+      </c>
+      <c r="B6" s="53" t="s">
+        <v>108</v>
+      </c>
+      <c r="C6" s="53" t="s">
+        <v>109</v>
+      </c>
+      <c r="D6" s="53" t="s">
+        <v>92</v>
+      </c>
+      <c r="E6" s="53" t="s">
+        <v>110</v>
+      </c>
+      <c r="F6" s="53" t="s">
+        <v>111</v>
+      </c>
+      <c r="G6" s="56" t="s">
+        <v>112</v>
+      </c>
+      <c r="H6" s="55" t="s">
+        <v>87</v>
+      </c>
+      <c r="I6" s="53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="52">
+        <v>5</v>
+      </c>
+      <c r="B7" s="53" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" s="53" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" s="53" t="s">
+        <v>115</v>
+      </c>
+      <c r="F7" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="G7" s="56" t="s">
+        <v>60</v>
+      </c>
+      <c r="H7" s="55" t="s">
+        <v>87</v>
+      </c>
+      <c r="I7" s="53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G8" s="12"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G9" s="12"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G10" s="12"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G11" s="12"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:I1"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="G3" r:id="rId1"/>
+    <hyperlink ref="G4" r:id="rId2"/>
+    <hyperlink ref="G5" r:id="rId3"/>
+    <hyperlink ref="G6" r:id="rId4"/>
+    <hyperlink ref="G7" r:id="rId5"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
 
@@ -3200,24 +2674,24 @@
       <c r="C2" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="49" t="s">
+      <c r="F2" s="41" t="s">
         <v>174</v>
       </c>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="49"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="41"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25" t="s">
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20" t="s">
         <v>179</v>
       </c>
-      <c r="K3" s="25" t="s">
+      <c r="K3" s="20" t="s">
         <v>202</v>
       </c>
     </row>
@@ -3231,12 +2705,12 @@
       <c r="C4" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="25"/>
-      <c r="J4" s="25"/>
-      <c r="K4" s="25"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="20"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -3248,16 +2722,16 @@
       <c r="C5" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="25" t="s">
+      <c r="F5" s="20" t="s">
         <v>169</v>
       </c>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25"/>
-      <c r="I5" s="25"/>
-      <c r="J5" s="25" t="s">
+      <c r="G5" s="20"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="20" t="s">
         <v>175</v>
       </c>
-      <c r="K5" s="25"/>
+      <c r="K5" s="20"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -3269,16 +2743,16 @@
       <c r="C6" t="s">
         <v>29</v>
       </c>
-      <c r="F6" s="28" t="s">
+      <c r="F6" s="23" t="s">
         <v>170</v>
       </c>
-      <c r="G6" s="25"/>
-      <c r="H6" s="25"/>
-      <c r="I6" s="25"/>
-      <c r="J6" s="28" t="s">
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="K6" s="25"/>
+      <c r="K6" s="20"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -3287,16 +2761,16 @@
       <c r="B7" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="25" t="s">
+      <c r="F7" s="20" t="s">
         <v>171</v>
       </c>
-      <c r="G7" s="25"/>
-      <c r="H7" s="25"/>
-      <c r="I7" s="25"/>
-      <c r="J7" s="25" t="s">
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="20" t="s">
         <v>176</v>
       </c>
-      <c r="K7" s="25"/>
+      <c r="K7" s="20"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -3305,16 +2779,16 @@
       <c r="B8" s="2">
         <v>5</v>
       </c>
-      <c r="F8" s="25" t="s">
+      <c r="F8" s="20" t="s">
         <v>172</v>
       </c>
-      <c r="G8" s="25"/>
-      <c r="H8" s="25"/>
-      <c r="I8" s="25"/>
-      <c r="J8" s="25" t="s">
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="20" t="s">
         <v>177</v>
       </c>
-      <c r="K8" s="25"/>
+      <c r="K8" s="20"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -3323,16 +2797,16 @@
       <c r="B9" s="2">
         <v>3</v>
       </c>
-      <c r="F9" s="25" t="s">
+      <c r="F9" s="20" t="s">
         <v>173</v>
       </c>
-      <c r="G9" s="25"/>
-      <c r="H9" s="25"/>
-      <c r="I9" s="25"/>
-      <c r="J9" s="25" t="s">
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="20" t="s">
         <v>178</v>
       </c>
-      <c r="K9" s="25"/>
+      <c r="K9" s="20"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -3341,54 +2815,54 @@
       <c r="B10" s="2">
         <v>10.5</v>
       </c>
-      <c r="F10" s="25"/>
-      <c r="G10" s="25"/>
-      <c r="H10" s="25"/>
-      <c r="I10" s="25"/>
-      <c r="J10" s="25"/>
-      <c r="K10" s="25"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="20"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>23</v>
       </c>
-      <c r="F11" s="24" t="s">
+      <c r="F11" s="19" t="s">
         <v>181</v>
       </c>
-      <c r="G11" s="24" t="s">
+      <c r="G11" s="19" t="s">
         <v>182</v>
       </c>
-      <c r="H11" s="24" t="s">
+      <c r="H11" s="19" t="s">
         <v>183</v>
       </c>
-      <c r="I11" s="24" t="s">
+      <c r="I11" s="19" t="s">
         <v>184</v>
       </c>
-      <c r="J11" s="24" t="s">
+      <c r="J11" s="19" t="s">
         <v>189</v>
       </c>
-      <c r="K11" s="24" t="s">
+      <c r="K11" s="19" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F12" s="25">
+      <c r="F12" s="20">
         <v>2</v>
       </c>
-      <c r="G12" s="25" t="s">
+      <c r="G12" s="20" t="s">
         <v>133</v>
       </c>
-      <c r="H12" s="25">
+      <c r="H12" s="20">
         <v>6</v>
       </c>
-      <c r="I12" s="25">
+      <c r="I12" s="20">
         <v>110</v>
       </c>
-      <c r="J12" s="25">
+      <c r="J12" s="20">
         <f>+K12*21/100</f>
         <v>138.6</v>
       </c>
-      <c r="K12" s="25">
+      <c r="K12" s="20">
         <f>+I12*H12</f>
         <v>660</v>
       </c>
@@ -3403,23 +2877,23 @@
       <c r="C13" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="F13" s="25">
+      <c r="F13" s="20">
         <v>3</v>
       </c>
-      <c r="G13" s="25" t="s">
+      <c r="G13" s="20" t="s">
         <v>134</v>
       </c>
-      <c r="H13" s="25">
+      <c r="H13" s="20">
         <v>6</v>
       </c>
-      <c r="I13" s="25">
+      <c r="I13" s="20">
         <v>210</v>
       </c>
-      <c r="J13" s="25">
+      <c r="J13" s="20">
         <f>+K13*21/100</f>
         <v>264.60000000000002</v>
       </c>
-      <c r="K13" s="25">
+      <c r="K13" s="20">
         <f>+I13*H13</f>
         <v>1260</v>
       </c>
@@ -3434,12 +2908,12 @@
       <c r="C14" s="9">
         <v>-0.05</v>
       </c>
-      <c r="F14" s="25"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="25"/>
-      <c r="I14" s="25"/>
-      <c r="J14" s="25"/>
-      <c r="K14" s="25"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="20"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15">
@@ -3451,12 +2925,12 @@
       <c r="C15" s="9">
         <v>0</v>
       </c>
-      <c r="F15" s="25"/>
-      <c r="G15" s="25"/>
-      <c r="H15" s="25"/>
-      <c r="I15" s="25"/>
-      <c r="J15" s="25"/>
-      <c r="K15" s="25"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="20"/>
+      <c r="K15" s="20"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16">
@@ -3468,38 +2942,38 @@
       <c r="C16" s="9">
         <v>0.03</v>
       </c>
-      <c r="F16" s="25"/>
-      <c r="G16" s="25"/>
-      <c r="H16" s="25"/>
-      <c r="I16" s="25"/>
-      <c r="J16" s="25"/>
-      <c r="K16" s="25"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="20"/>
+      <c r="K16" s="20"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F17" s="25"/>
-      <c r="G17" s="25"/>
-      <c r="H17" s="25"/>
-      <c r="I17" s="25"/>
-      <c r="J17" s="25"/>
-      <c r="K17" s="25"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="20"/>
+      <c r="K17" s="20"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F18" s="25"/>
-      <c r="G18" s="25"/>
-      <c r="H18" s="25"/>
-      <c r="I18" s="25"/>
-      <c r="J18" s="25"/>
-      <c r="K18" s="25"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="20"/>
+      <c r="K18" s="20"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F19" s="26"/>
-      <c r="G19" s="26"/>
-      <c r="H19" s="26"/>
-      <c r="I19" s="26"/>
-      <c r="J19" s="26" t="s">
+      <c r="F19" s="21"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="21"/>
+      <c r="I19" s="21"/>
+      <c r="J19" s="21" t="s">
         <v>185</v>
       </c>
-      <c r="K19" s="27">
+      <c r="K19" s="22">
         <f>SUM(K12:K18)</f>
         <v>1920</v>
       </c>
@@ -3511,14 +2985,14 @@
       <c r="B20" s="6">
         <v>5555</v>
       </c>
-      <c r="F20" s="26"/>
-      <c r="G20" s="26"/>
-      <c r="H20" s="26"/>
-      <c r="I20" s="26"/>
-      <c r="J20" s="26" t="s">
+      <c r="F20" s="21"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="21"/>
+      <c r="I20" s="21"/>
+      <c r="J20" s="21" t="s">
         <v>186</v>
       </c>
-      <c r="K20" s="27">
+      <c r="K20" s="22">
         <f>+J12+J13</f>
         <v>403.20000000000005</v>
       </c>
@@ -3533,14 +3007,14 @@
       <c r="C21" t="s">
         <v>16</v>
       </c>
-      <c r="F21" s="26"/>
-      <c r="G21" s="26"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="26"/>
-      <c r="J21" s="26" t="s">
+      <c r="F21" s="21"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="21"/>
+      <c r="I21" s="21"/>
+      <c r="J21" s="21" t="s">
         <v>187</v>
       </c>
-      <c r="K21" s="27">
+      <c r="K21" s="22">
         <f>+K19+K20</f>
         <v>2323.1999999999998</v>
       </c>
@@ -3614,716 +3088,324 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J20"/>
-  <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="3" max="3" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="50" t="s">
-        <v>122</v>
-      </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>123</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>235</v>
-      </c>
-      <c r="F2" s="38" t="s">
-        <v>228</v>
-      </c>
-      <c r="G2" s="11" t="s">
-        <v>229</v>
-      </c>
-      <c r="H2" s="11" t="s">
-        <v>126</v>
-      </c>
-      <c r="I2" s="11" t="s">
-        <v>204</v>
-      </c>
-      <c r="J2" s="11" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="15">
-        <v>1</v>
-      </c>
-      <c r="B3" s="17">
-        <v>6</v>
-      </c>
-      <c r="C3" s="17" t="s">
-        <v>135</v>
-      </c>
-      <c r="D3" s="15">
-        <v>501</v>
-      </c>
-      <c r="E3" s="17">
-        <v>1000</v>
-      </c>
-      <c r="F3" s="39">
-        <f>+G3/(($A$14/100)+1)</f>
-        <v>42.857142857142861</v>
-      </c>
-      <c r="G3" s="48">
-        <v>60</v>
-      </c>
-      <c r="H3" s="19">
-        <v>21</v>
-      </c>
-      <c r="I3" s="17">
-        <v>50</v>
-      </c>
-      <c r="J3" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="15">
-        <v>2</v>
-      </c>
-      <c r="B4" s="17">
-        <v>6</v>
-      </c>
-      <c r="C4" s="17" t="s">
-        <v>133</v>
-      </c>
-      <c r="D4" s="15">
-        <v>501</v>
-      </c>
-      <c r="E4" s="17">
-        <v>1000</v>
-      </c>
-      <c r="F4" s="39">
-        <f t="shared" ref="F4:F11" si="0">+G4/(($A$14/100)+1)</f>
-        <v>85.714285714285722</v>
-      </c>
-      <c r="G4" s="48">
-        <v>120</v>
-      </c>
-      <c r="H4" s="19">
-        <v>21</v>
-      </c>
-      <c r="I4" s="17">
-        <v>50</v>
-      </c>
-      <c r="J4" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="15">
-        <v>3</v>
-      </c>
-      <c r="B5" s="17">
-        <v>6</v>
-      </c>
-      <c r="C5" s="17" t="s">
-        <v>134</v>
-      </c>
-      <c r="D5" s="15">
-        <v>501</v>
-      </c>
-      <c r="E5" s="17">
-        <v>1000</v>
-      </c>
-      <c r="F5" s="39">
-        <f t="shared" si="0"/>
-        <v>150</v>
-      </c>
-      <c r="G5" s="48">
-        <v>210</v>
-      </c>
-      <c r="H5" s="19">
-        <v>210</v>
-      </c>
-      <c r="I5" s="17">
-        <v>50</v>
-      </c>
-      <c r="J5" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="15">
-        <v>4</v>
-      </c>
-      <c r="B6" s="17">
-        <v>8</v>
-      </c>
-      <c r="C6" s="17" t="s">
-        <v>127</v>
-      </c>
-      <c r="D6" s="15">
-        <v>501</v>
-      </c>
-      <c r="E6" s="17">
-        <v>300</v>
-      </c>
-      <c r="F6" s="39">
-        <f t="shared" si="0"/>
-        <v>357.14285714285717</v>
-      </c>
-      <c r="G6" s="48">
-        <v>500</v>
-      </c>
-      <c r="H6" s="19">
-        <v>10.5</v>
-      </c>
-      <c r="I6" s="17">
-        <v>10</v>
-      </c>
-      <c r="J6" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="15">
-        <v>5</v>
-      </c>
-      <c r="B7" s="17">
-        <v>8</v>
-      </c>
-      <c r="C7" s="17" t="s">
-        <v>128</v>
-      </c>
-      <c r="D7" s="15">
-        <v>501</v>
-      </c>
-      <c r="E7" s="17">
-        <v>300</v>
-      </c>
-      <c r="F7" s="39">
-        <f t="shared" si="0"/>
-        <v>428.57142857142861</v>
-      </c>
-      <c r="G7" s="48">
-        <v>600</v>
-      </c>
-      <c r="H7" s="19">
-        <v>10.5</v>
-      </c>
-      <c r="I7" s="17">
-        <v>10</v>
-      </c>
-      <c r="J7" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="15">
-        <v>6</v>
-      </c>
-      <c r="B8" s="17">
-        <v>4</v>
-      </c>
-      <c r="C8" s="17" t="s">
-        <v>131</v>
-      </c>
-      <c r="D8" s="15">
-        <v>501</v>
-      </c>
-      <c r="E8" s="17">
-        <v>8000</v>
-      </c>
-      <c r="F8" s="39">
-        <f t="shared" si="0"/>
-        <v>7.1428571428571432</v>
-      </c>
-      <c r="G8" s="48">
-        <v>10</v>
-      </c>
-      <c r="H8" s="19">
-        <v>21</v>
-      </c>
-      <c r="I8" s="17">
-        <v>50</v>
-      </c>
-      <c r="J8" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="15">
-        <v>7</v>
-      </c>
-      <c r="B9" s="17">
-        <v>4</v>
-      </c>
-      <c r="C9" s="17" t="s">
-        <v>129</v>
-      </c>
-      <c r="D9" s="15">
-        <v>501</v>
-      </c>
-      <c r="E9" s="17">
-        <v>8000</v>
-      </c>
-      <c r="F9" s="39">
-        <f t="shared" si="0"/>
-        <v>5.7142857142857144</v>
-      </c>
-      <c r="G9" s="48">
-        <v>8</v>
-      </c>
-      <c r="H9" s="19">
-        <v>21</v>
-      </c>
-      <c r="I9" s="17">
-        <v>50</v>
-      </c>
-      <c r="J9" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="15">
-        <v>8</v>
-      </c>
-      <c r="B10" s="17">
-        <v>4</v>
-      </c>
-      <c r="C10" s="17" t="s">
-        <v>130</v>
-      </c>
-      <c r="D10" s="15">
-        <v>501</v>
-      </c>
-      <c r="E10" s="17">
-        <v>6000</v>
-      </c>
-      <c r="F10" s="39">
-        <f t="shared" si="0"/>
-        <v>4.2857142857142856</v>
-      </c>
-      <c r="G10" s="48">
-        <v>6</v>
-      </c>
-      <c r="H10" s="19">
-        <v>21</v>
-      </c>
-      <c r="I10" s="17">
-        <v>50</v>
-      </c>
-      <c r="J10" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="15">
-        <v>9</v>
-      </c>
-      <c r="B11" s="17">
-        <v>4</v>
-      </c>
-      <c r="C11" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="D11" s="15">
-        <v>501</v>
-      </c>
-      <c r="E11" s="17">
-        <v>100</v>
-      </c>
-      <c r="F11" s="39">
-        <f t="shared" si="0"/>
-        <v>3.5714285714285716</v>
-      </c>
-      <c r="G11" s="48">
-        <v>5</v>
-      </c>
-      <c r="H11" s="19">
-        <v>21</v>
-      </c>
-      <c r="I11" s="17">
-        <v>10</v>
-      </c>
-      <c r="J11" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="51" t="s">
-        <v>239</v>
-      </c>
-      <c r="B13" s="51"/>
-      <c r="C13" s="51"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="52">
-        <v>40</v>
-      </c>
-      <c r="B14" s="52"/>
-      <c r="C14" s="52"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="G15" s="37"/>
-    </row>
-    <row r="20" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G20" t="s">
-        <v>230</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A14:C14"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection sqref="A1:I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.5703125" style="10" customWidth="1"/>
-    <col min="2" max="2" width="28.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.42578125" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="13.5703125" customWidth="1"/>
     <col min="6" max="6" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="48" t="s">
         <v>114</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="49" t="s">
         <v>79</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="50" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="50" t="s">
         <v>81</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="49" t="s">
         <v>82</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="49" t="s">
         <v>83</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="49" t="s">
         <v>84</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="49" t="s">
         <v>85</v>
       </c>
-      <c r="H2" s="32" t="s">
+      <c r="H2" s="51" t="s">
         <v>78</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="I2" s="49" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="15">
+      <c r="A3" s="52">
         <v>1</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="D3" s="53" t="s">
         <v>41</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="E3" s="53" t="s">
         <v>55</v>
       </c>
-      <c r="F3" s="17" t="s">
+      <c r="F3" s="53" t="s">
         <v>49</v>
       </c>
-      <c r="G3" s="18" t="s">
+      <c r="G3" s="54" t="s">
         <v>50</v>
       </c>
-      <c r="H3" s="34" t="s">
+      <c r="H3" s="55" t="s">
         <v>86</v>
       </c>
-      <c r="I3" s="17">
+      <c r="I3" s="53">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="15">
+      <c r="A4" s="52">
         <v>2</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="53" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="53" t="s">
         <v>37</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="D4" s="53" t="s">
         <v>42</v>
       </c>
-      <c r="E4" s="17" t="s">
+      <c r="E4" s="53" t="s">
         <v>54</v>
       </c>
-      <c r="F4" s="17" t="s">
+      <c r="F4" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="G4" s="19" t="s">
+      <c r="G4" s="56" t="s">
         <v>52</v>
       </c>
-      <c r="H4" s="34" t="s">
+      <c r="H4" s="55" t="s">
         <v>86</v>
       </c>
-      <c r="I4" s="17">
+      <c r="I4" s="53">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="15">
+      <c r="A5" s="52">
         <v>3</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="53" t="s">
         <v>38</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="53" t="s">
         <v>38</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="D5" s="53" t="s">
         <v>43</v>
       </c>
-      <c r="E5" s="17" t="s">
+      <c r="E5" s="53" t="s">
         <v>53</v>
       </c>
-      <c r="F5" s="17" t="s">
+      <c r="F5" s="53" t="s">
         <v>56</v>
       </c>
-      <c r="G5" s="19" t="s">
+      <c r="G5" s="56" t="s">
         <v>57</v>
       </c>
-      <c r="H5" s="34" t="s">
+      <c r="H5" s="55" t="s">
         <v>86</v>
       </c>
-      <c r="I5" s="17">
+      <c r="I5" s="53">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="15">
+      <c r="A6" s="52">
         <v>4</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="53" t="s">
         <v>58</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="53" t="s">
         <v>39</v>
       </c>
-      <c r="D6" s="17" t="s">
+      <c r="D6" s="53" t="s">
         <v>44</v>
       </c>
-      <c r="E6" s="17" t="s">
+      <c r="E6" s="53" t="s">
         <v>115</v>
       </c>
-      <c r="F6" s="17" t="s">
+      <c r="F6" s="53" t="s">
         <v>70</v>
       </c>
-      <c r="G6" s="19" t="s">
+      <c r="G6" s="56" t="s">
         <v>60</v>
       </c>
-      <c r="H6" s="34" t="s">
+      <c r="H6" s="55" t="s">
         <v>86</v>
       </c>
-      <c r="I6" s="17">
+      <c r="I6" s="53">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="15">
+      <c r="A7" s="52">
         <v>5</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="53" t="s">
         <v>59</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="53" t="s">
         <v>116</v>
       </c>
-      <c r="D7" s="17" t="s">
+      <c r="D7" s="53" t="s">
         <v>45</v>
       </c>
-      <c r="E7" s="17" t="s">
+      <c r="E7" s="53" t="s">
         <v>66</v>
       </c>
-      <c r="F7" s="17" t="s">
+      <c r="F7" s="53" t="s">
         <v>67</v>
       </c>
-      <c r="G7" s="19" t="s">
+      <c r="G7" s="56" t="s">
         <v>61</v>
       </c>
-      <c r="H7" s="34" t="s">
+      <c r="H7" s="55" t="s">
         <v>86</v>
       </c>
-      <c r="I7" s="17">
+      <c r="I7" s="53">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="15">
+      <c r="A8" s="52">
         <v>6</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="53" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="C8" s="53" t="s">
         <v>117</v>
       </c>
-      <c r="D8" s="17" t="s">
+      <c r="D8" s="53" t="s">
         <v>46</v>
       </c>
-      <c r="E8" s="17" t="s">
+      <c r="E8" s="53" t="s">
         <v>68</v>
       </c>
-      <c r="F8" s="17" t="s">
+      <c r="F8" s="53" t="s">
         <v>69</v>
       </c>
-      <c r="G8" s="19" t="s">
+      <c r="G8" s="56" t="s">
         <v>62</v>
       </c>
-      <c r="H8" s="34" t="s">
+      <c r="H8" s="55" t="s">
         <v>86</v>
       </c>
-      <c r="I8" s="17">
+      <c r="I8" s="53">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="15">
+      <c r="A9" s="52">
         <v>7</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="53" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="C9" s="53" t="s">
         <v>40</v>
       </c>
-      <c r="D9" s="17" t="s">
+      <c r="D9" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="E9" s="17" t="s">
+      <c r="E9" s="53" t="s">
         <v>71</v>
       </c>
-      <c r="F9" s="17" t="s">
+      <c r="F9" s="53" t="s">
         <v>72</v>
       </c>
-      <c r="G9" s="19" t="s">
+      <c r="G9" s="56" t="s">
         <v>63</v>
       </c>
-      <c r="H9" s="34" t="s">
+      <c r="H9" s="55" t="s">
         <v>86</v>
       </c>
-      <c r="I9" s="17">
+      <c r="I9" s="53">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="15">
+      <c r="A10" s="52">
         <v>8</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="53" t="s">
         <v>118</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="C10" s="53" t="s">
         <v>119</v>
       </c>
-      <c r="D10" s="17" t="s">
+      <c r="D10" s="53" t="s">
         <v>48</v>
       </c>
-      <c r="E10" s="17" t="s">
+      <c r="E10" s="53" t="s">
         <v>73</v>
       </c>
-      <c r="F10" s="17" t="s">
+      <c r="F10" s="53" t="s">
         <v>74</v>
       </c>
-      <c r="G10" s="19" t="s">
+      <c r="G10" s="56" t="s">
         <v>64</v>
       </c>
-      <c r="H10" s="34" t="s">
+      <c r="H10" s="55" t="s">
         <v>86</v>
       </c>
-      <c r="I10" s="17">
+      <c r="I10" s="53">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="15">
+      <c r="A11" s="52">
         <v>9</v>
       </c>
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="53" t="s">
         <v>120</v>
       </c>
-      <c r="C11" s="17" t="s">
+      <c r="C11" s="53" t="s">
         <v>121</v>
       </c>
-      <c r="D11" s="17" t="s">
+      <c r="D11" s="53" t="s">
         <v>94</v>
       </c>
-      <c r="E11" s="17" t="s">
+      <c r="E11" s="53" t="s">
         <v>75</v>
       </c>
-      <c r="F11" s="17" t="s">
+      <c r="F11" s="53" t="s">
         <v>76</v>
       </c>
-      <c r="G11" s="19" t="s">
+      <c r="G11" s="56" t="s">
         <v>65</v>
       </c>
-      <c r="H11" s="34" t="s">
+      <c r="H11" s="55" t="s">
         <v>86</v>
       </c>
-      <c r="I11" s="17">
+      <c r="I11" s="53">
         <v>0</v>
       </c>
     </row>
@@ -4347,605 +3429,398 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.85546875" style="10" customWidth="1"/>
-    <col min="2" max="2" width="18.7109375" style="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15" style="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" style="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.42578125" style="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19" style="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.5703125" style="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="50" t="s">
-        <v>77</v>
-      </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="42" t="s">
+        <v>122</v>
+      </c>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>79</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>80</v>
+        <v>123</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>81</v>
+        <v>124</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>82</v>
+        <v>125</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>84</v>
+        <v>232</v>
+      </c>
+      <c r="F2" s="30" t="s">
+        <v>225</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>85</v>
+        <v>226</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>78</v>
+        <v>126</v>
       </c>
       <c r="I2" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="J2" s="11" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="15">
         <v>1</v>
       </c>
-      <c r="B3" s="16" t="s">
-        <v>89</v>
-      </c>
-      <c r="C3" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="D3" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="E3" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="F3" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="G3" s="19" t="s">
-        <v>97</v>
-      </c>
-      <c r="H3" s="15" t="s">
-        <v>87</v>
+      <c r="B3" s="17">
+        <v>6</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="D3" s="15">
+        <v>501</v>
+      </c>
+      <c r="E3" s="17">
+        <v>1000</v>
+      </c>
+      <c r="F3" s="31">
+        <f>+G3/(($A$14/100)+1)</f>
+        <v>42.857142857142861</v>
+      </c>
+      <c r="G3" s="40">
+        <v>60</v>
+      </c>
+      <c r="H3" s="18">
+        <v>21</v>
       </c>
       <c r="I3" s="17">
+        <v>50</v>
+      </c>
+      <c r="J3" s="17">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="15">
         <v>2</v>
       </c>
-      <c r="B4" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="C4" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="D4" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="E4" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="F4" s="15" t="s">
-        <v>101</v>
-      </c>
-      <c r="G4" s="19" t="s">
-        <v>102</v>
-      </c>
-      <c r="H4" s="15" t="s">
-        <v>87</v>
+      <c r="B4" s="17">
+        <v>6</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="D4" s="15">
+        <v>501</v>
+      </c>
+      <c r="E4" s="17">
+        <v>1000</v>
+      </c>
+      <c r="F4" s="31">
+        <f t="shared" ref="F4:F11" si="0">+G4/(($A$14/100)+1)</f>
+        <v>85.714285714285722</v>
+      </c>
+      <c r="G4" s="40">
+        <v>120</v>
+      </c>
+      <c r="H4" s="18">
+        <v>21</v>
       </c>
       <c r="I4" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="J4" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="15">
         <v>3</v>
       </c>
-      <c r="B5" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="C5" s="16" t="s">
-        <v>104</v>
-      </c>
-      <c r="D5" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="E5" s="15" t="s">
-        <v>105</v>
-      </c>
-      <c r="F5" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="G5" s="19" t="s">
-        <v>107</v>
-      </c>
-      <c r="H5" s="15" t="s">
-        <v>87</v>
+      <c r="B5" s="17">
+        <v>6</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="D5" s="15">
+        <v>501</v>
+      </c>
+      <c r="E5" s="17">
+        <v>1000</v>
+      </c>
+      <c r="F5" s="31">
+        <f t="shared" si="0"/>
+        <v>150</v>
+      </c>
+      <c r="G5" s="40">
+        <v>210</v>
+      </c>
+      <c r="H5" s="18">
+        <v>210</v>
       </c>
       <c r="I5" s="17">
+        <v>50</v>
+      </c>
+      <c r="J5" s="17">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="15">
         <v>4</v>
       </c>
-      <c r="B6" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>109</v>
-      </c>
-      <c r="D6" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="E6" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="F6" s="15" t="s">
-        <v>111</v>
-      </c>
-      <c r="G6" s="19" t="s">
-        <v>112</v>
-      </c>
-      <c r="H6" s="15" t="s">
-        <v>87</v>
+      <c r="B6" s="17">
+        <v>8</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="D6" s="15">
+        <v>501</v>
+      </c>
+      <c r="E6" s="17">
+        <v>300</v>
+      </c>
+      <c r="F6" s="31">
+        <f t="shared" si="0"/>
+        <v>357.14285714285717</v>
+      </c>
+      <c r="G6" s="40">
+        <v>500</v>
+      </c>
+      <c r="H6" s="18">
+        <v>10.5</v>
       </c>
       <c r="I6" s="17">
+        <v>10</v>
+      </c>
+      <c r="J6" s="17">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="15">
         <v>5</v>
       </c>
-      <c r="B7" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="C7" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="D7" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="E7" s="15" t="s">
-        <v>115</v>
-      </c>
-      <c r="F7" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="G7" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="H7" s="15" t="s">
-        <v>87</v>
+      <c r="B7" s="17">
+        <v>8</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="D7" s="15">
+        <v>501</v>
+      </c>
+      <c r="E7" s="17">
+        <v>300</v>
+      </c>
+      <c r="F7" s="31">
+        <f t="shared" si="0"/>
+        <v>428.57142857142861</v>
+      </c>
+      <c r="G7" s="40">
+        <v>600</v>
+      </c>
+      <c r="H7" s="18">
+        <v>10.5</v>
       </c>
       <c r="I7" s="17">
+        <v>10</v>
+      </c>
+      <c r="J7" s="17">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G8" s="12"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G9" s="12"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G10" s="12"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G11" s="12"/>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="15">
+        <v>6</v>
+      </c>
+      <c r="B8" s="17">
+        <v>4</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="D8" s="15">
+        <v>501</v>
+      </c>
+      <c r="E8" s="17">
+        <v>8000</v>
+      </c>
+      <c r="F8" s="31">
+        <f t="shared" si="0"/>
+        <v>7.1428571428571432</v>
+      </c>
+      <c r="G8" s="40">
+        <v>10</v>
+      </c>
+      <c r="H8" s="18">
+        <v>21</v>
+      </c>
+      <c r="I8" s="17">
+        <v>50</v>
+      </c>
+      <c r="J8" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="15">
+        <v>7</v>
+      </c>
+      <c r="B9" s="17">
+        <v>4</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="D9" s="15">
+        <v>501</v>
+      </c>
+      <c r="E9" s="17">
+        <v>8000</v>
+      </c>
+      <c r="F9" s="31">
+        <f t="shared" si="0"/>
+        <v>5.7142857142857144</v>
+      </c>
+      <c r="G9" s="40">
+        <v>8</v>
+      </c>
+      <c r="H9" s="18">
+        <v>21</v>
+      </c>
+      <c r="I9" s="17">
+        <v>50</v>
+      </c>
+      <c r="J9" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="15">
+        <v>8</v>
+      </c>
+      <c r="B10" s="17">
+        <v>4</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="D10" s="15">
+        <v>501</v>
+      </c>
+      <c r="E10" s="17">
+        <v>6000</v>
+      </c>
+      <c r="F10" s="31">
+        <f t="shared" si="0"/>
+        <v>4.2857142857142856</v>
+      </c>
+      <c r="G10" s="40">
+        <v>6</v>
+      </c>
+      <c r="H10" s="18">
+        <v>21</v>
+      </c>
+      <c r="I10" s="17">
+        <v>50</v>
+      </c>
+      <c r="J10" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="15">
+        <v>9</v>
+      </c>
+      <c r="B11" s="17">
+        <v>4</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="D11" s="15">
+        <v>501</v>
+      </c>
+      <c r="E11" s="17">
+        <v>100</v>
+      </c>
+      <c r="F11" s="31">
+        <f t="shared" si="0"/>
+        <v>3.5714285714285716</v>
+      </c>
+      <c r="G11" s="40">
+        <v>5</v>
+      </c>
+      <c r="H11" s="18">
+        <v>21</v>
+      </c>
+      <c r="I11" s="17">
+        <v>10</v>
+      </c>
+      <c r="J11" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="43" t="s">
+        <v>236</v>
+      </c>
+      <c r="B13" s="43"/>
+      <c r="C13" s="43"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="44">
+        <v>40</v>
+      </c>
+      <c r="B14" s="44"/>
+      <c r="C14" s="44"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G15" s="29"/>
+    </row>
+    <row r="20" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G20" t="s">
+        <v>227</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:I1"/>
+  <mergeCells count="3">
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A14:C14"/>
   </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="G3" r:id="rId1"/>
-    <hyperlink ref="G4" r:id="rId2"/>
-    <hyperlink ref="G5" r:id="rId3"/>
-    <hyperlink ref="G6" r:id="rId4"/>
-    <hyperlink ref="G7" r:id="rId5"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId6"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D41"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B41"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.5703125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C1" s="35" t="s">
-        <v>214</v>
-      </c>
-      <c r="D1" s="35" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="23">
-        <v>100</v>
-      </c>
-      <c r="B2" s="23" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="20">
-        <v>101</v>
-      </c>
-      <c r="B3" s="21" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="22">
-        <v>102</v>
-      </c>
-      <c r="B4" s="22" t="s">
-        <v>138</v>
-      </c>
-      <c r="C4" t="s">
-        <v>240</v>
-      </c>
-      <c r="D4" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="22">
-        <v>103</v>
-      </c>
-      <c r="B5" s="22" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="22">
-        <v>104</v>
-      </c>
-      <c r="B6" s="22" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="20">
-        <v>105</v>
-      </c>
-      <c r="B7" s="20" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="20">
-        <v>106</v>
-      </c>
-      <c r="B8" s="20" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="20">
-        <v>107</v>
-      </c>
-      <c r="B9" s="20" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="20">
-        <v>108</v>
-      </c>
-      <c r="B10" s="20" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="23">
-        <v>200</v>
-      </c>
-      <c r="B11" s="23" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="20">
-        <v>201</v>
-      </c>
-      <c r="B12" s="20" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="22">
-        <v>202</v>
-      </c>
-      <c r="B13" s="22" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="22">
-        <v>203</v>
-      </c>
-      <c r="B14" s="22" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="22">
-        <v>204</v>
-      </c>
-      <c r="B15" s="22" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="22">
-        <v>205</v>
-      </c>
-      <c r="B16" s="22" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="22">
-        <v>206</v>
-      </c>
-      <c r="B17" s="22" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="20">
-        <v>208</v>
-      </c>
-      <c r="B18" s="20" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="20">
-        <v>209</v>
-      </c>
-      <c r="B19" s="20" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="20">
-        <v>210</v>
-      </c>
-      <c r="B20" s="21" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="23">
-        <v>300</v>
-      </c>
-      <c r="B21" s="23" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="20">
-        <v>301</v>
-      </c>
-      <c r="B22" s="21" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="20">
-        <v>302</v>
-      </c>
-      <c r="B23" s="20" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="20">
-        <v>303</v>
-      </c>
-      <c r="B24" s="21" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="20">
-        <v>304</v>
-      </c>
-      <c r="B25" s="20" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="20">
-        <v>305</v>
-      </c>
-      <c r="B26" s="20" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="23">
-        <v>400</v>
-      </c>
-      <c r="B27" s="23" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="22">
-        <v>401</v>
-      </c>
-      <c r="B28" s="22" t="s">
-        <v>159</v>
-      </c>
-      <c r="D28" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="20">
-        <v>402</v>
-      </c>
-      <c r="B29" s="20" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="20">
-        <v>403</v>
-      </c>
-      <c r="B30" s="20" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="23">
-        <v>500</v>
-      </c>
-      <c r="B31" s="23" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="22">
-        <v>501</v>
-      </c>
-      <c r="B32" s="22" t="s">
-        <v>161</v>
-      </c>
-      <c r="C32" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="20">
-        <v>502</v>
-      </c>
-      <c r="B33" s="20" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="22">
-        <v>503</v>
-      </c>
-      <c r="B34" s="22" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="22">
-        <v>506</v>
-      </c>
-      <c r="B35" s="22" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="22">
-        <v>507</v>
-      </c>
-      <c r="B36" s="22" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="20">
-        <v>508</v>
-      </c>
-      <c r="B37" s="20" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="22">
-        <v>509</v>
-      </c>
-      <c r="B38" s="22" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="22">
-        <v>513</v>
-      </c>
-      <c r="B39" s="22" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="20">
-        <v>515</v>
-      </c>
-      <c r="B40" s="20" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="20">
-        <v>516</v>
-      </c>
-      <c r="B41" s="20" t="s">
-        <v>150</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K32"/>
   <sheetViews>
@@ -4960,18 +3835,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="45" t="s">
         <v>206</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
-      <c r="J1" s="53"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
@@ -4998,90 +3873,90 @@
       <c r="H2" s="11" t="s">
         <v>195</v>
       </c>
-      <c r="I2" s="32" t="s">
+      <c r="I2" s="27" t="s">
         <v>198</v>
       </c>
-      <c r="J2" s="32" t="s">
+      <c r="J2" s="27" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="29">
+      <c r="A3" s="24">
         <v>100</v>
       </c>
-      <c r="B3" s="30">
+      <c r="B3" s="25">
         <v>2</v>
       </c>
-      <c r="C3" s="30">
+      <c r="C3" s="25">
         <v>6</v>
       </c>
-      <c r="D3" s="29">
+      <c r="D3" s="24">
         <v>110</v>
       </c>
-      <c r="E3" s="29">
+      <c r="E3" s="24">
         <v>138.6</v>
       </c>
-      <c r="F3" s="29">
+      <c r="F3" s="24">
         <v>660</v>
       </c>
-      <c r="G3" s="31">
+      <c r="G3" s="26">
         <f>+E3+F3</f>
         <v>798.6</v>
       </c>
-      <c r="H3" s="29">
+      <c r="H3" s="24">
         <v>102</v>
       </c>
-      <c r="I3" s="33">
+      <c r="I3" s="28">
         <v>5</v>
       </c>
-      <c r="J3" s="33" t="s">
+      <c r="J3" s="28" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="29">
+      <c r="A4" s="24">
         <v>100</v>
       </c>
-      <c r="B4" s="30">
+      <c r="B4" s="25">
         <v>3</v>
       </c>
-      <c r="C4" s="30">
+      <c r="C4" s="25">
         <v>6</v>
       </c>
-      <c r="D4" s="29">
+      <c r="D4" s="24">
         <v>210</v>
       </c>
-      <c r="E4" s="29">
+      <c r="E4" s="24">
         <v>264.60000000000002</v>
       </c>
-      <c r="F4" s="29">
+      <c r="F4" s="24">
         <v>1260</v>
       </c>
-      <c r="G4" s="31">
+      <c r="G4" s="26">
         <f>+E4+F4</f>
         <v>1524.6</v>
       </c>
-      <c r="H4" s="29">
+      <c r="H4" s="24">
         <v>102</v>
       </c>
-      <c r="I4" s="33">
+      <c r="I4" s="28">
         <v>5</v>
       </c>
-      <c r="J4" s="33" t="s">
+      <c r="J4" s="28" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="29"/>
-      <c r="B5" s="30"/>
-      <c r="C5" s="30"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="29"/>
-      <c r="I5" s="33"/>
-      <c r="J5" s="33"/>
+      <c r="A5" s="24"/>
+      <c r="B5" s="25"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="28"/>
+      <c r="J5" s="28"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="15"/>
@@ -5090,7 +3965,7 @@
       <c r="D6" s="15"/>
       <c r="E6" s="15"/>
       <c r="F6" s="15"/>
-      <c r="G6" s="19"/>
+      <c r="G6" s="18"/>
       <c r="H6" s="15"/>
       <c r="I6" s="17"/>
       <c r="J6" s="17"/>
@@ -5102,7 +3977,7 @@
       <c r="D7" s="15"/>
       <c r="E7" s="15"/>
       <c r="F7" s="15"/>
-      <c r="G7" s="19"/>
+      <c r="G7" s="18"/>
       <c r="H7" s="15"/>
       <c r="I7" s="17"/>
       <c r="J7" s="17"/>
@@ -5114,36 +3989,36 @@
       <c r="C12" s="3"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B14" s="25"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25" t="s">
+      <c r="B14" s="20"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20" t="s">
         <v>179</v>
       </c>
-      <c r="G14" s="25" t="s">
+      <c r="G14" s="20" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B15" s="25"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="25"/>
+      <c r="B15" s="20"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B16" s="25" t="s">
+      <c r="B16" s="20" t="s">
         <v>169</v>
       </c>
-      <c r="C16" s="25"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="25" t="s">
+      <c r="C16" s="20"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20" t="s">
         <v>175</v>
       </c>
-      <c r="G16" s="25"/>
+      <c r="G16" s="20"/>
       <c r="J16">
         <v>1000</v>
       </c>
@@ -5152,204 +4027,204 @@
       </c>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B17" s="28" t="s">
+      <c r="B17" s="23" t="s">
         <v>170</v>
       </c>
-      <c r="C17" s="25"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="25"/>
-      <c r="F17" s="28" t="s">
+      <c r="C17" s="20"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="G17" s="25"/>
+      <c r="G17" s="20"/>
       <c r="K17">
         <f>+J16*K16</f>
         <v>210</v>
       </c>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B18" s="25" t="s">
+      <c r="B18" s="20" t="s">
         <v>171</v>
       </c>
-      <c r="C18" s="25"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="25"/>
-      <c r="F18" s="25" t="s">
+      <c r="C18" s="20"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="20" t="s">
         <v>176</v>
       </c>
-      <c r="G18" s="25"/>
+      <c r="G18" s="20"/>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B19" s="25" t="s">
+      <c r="B19" s="20" t="s">
         <v>172</v>
       </c>
-      <c r="C19" s="25"/>
-      <c r="D19" s="25"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="25" t="s">
+      <c r="C19" s="20"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="20" t="s">
         <v>177</v>
       </c>
-      <c r="G19" s="25"/>
+      <c r="G19" s="20"/>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B20" s="25" t="s">
+      <c r="B20" s="20" t="s">
         <v>173</v>
       </c>
-      <c r="C20" s="25"/>
-      <c r="D20" s="25"/>
-      <c r="E20" s="25"/>
-      <c r="F20" s="25" t="s">
+      <c r="C20" s="20"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="20" t="s">
         <v>178</v>
       </c>
-      <c r="G20" s="25"/>
+      <c r="G20" s="20"/>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B21" s="25"/>
-      <c r="C21" s="25"/>
-      <c r="D21" s="25"/>
-      <c r="E21" s="25"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="25"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="20"/>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B22" s="24" t="s">
+      <c r="B22" s="19" t="s">
         <v>181</v>
       </c>
-      <c r="C22" s="24" t="s">
+      <c r="C22" s="19" t="s">
         <v>182</v>
       </c>
-      <c r="D22" s="24" t="s">
+      <c r="D22" s="19" t="s">
         <v>183</v>
       </c>
-      <c r="E22" s="24" t="s">
+      <c r="E22" s="19" t="s">
         <v>184</v>
       </c>
-      <c r="F22" s="24" t="s">
+      <c r="F22" s="19" t="s">
         <v>189</v>
       </c>
-      <c r="G22" s="24" t="s">
+      <c r="G22" s="19" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B23" s="25">
+      <c r="B23" s="20">
         <v>2</v>
       </c>
-      <c r="C23" s="25" t="s">
+      <c r="C23" s="20" t="s">
         <v>133</v>
       </c>
-      <c r="D23" s="25">
+      <c r="D23" s="20">
         <v>6</v>
       </c>
-      <c r="E23" s="25">
+      <c r="E23" s="20">
         <v>110</v>
       </c>
-      <c r="F23" s="25">
+      <c r="F23" s="20">
         <f>+G23*21/100</f>
         <v>138.6</v>
       </c>
-      <c r="G23" s="25">
+      <c r="G23" s="20">
         <f>+E23*D23</f>
         <v>660</v>
       </c>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B24" s="25">
+      <c r="B24" s="20">
         <v>3</v>
       </c>
-      <c r="C24" s="25" t="s">
+      <c r="C24" s="20" t="s">
         <v>134</v>
       </c>
-      <c r="D24" s="25">
+      <c r="D24" s="20">
         <v>6</v>
       </c>
-      <c r="E24" s="25">
+      <c r="E24" s="20">
         <v>210</v>
       </c>
-      <c r="F24" s="25">
+      <c r="F24" s="20">
         <f>+G24*21/100</f>
         <v>264.60000000000002</v>
       </c>
-      <c r="G24" s="25">
+      <c r="G24" s="20">
         <f>+E24*D24</f>
         <v>1260</v>
       </c>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B25" s="25"/>
-      <c r="C25" s="25"/>
-      <c r="D25" s="25"/>
-      <c r="E25" s="25"/>
-      <c r="F25" s="25"/>
-      <c r="G25" s="25"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="20"/>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B26" s="25"/>
-      <c r="C26" s="25"/>
-      <c r="D26" s="25"/>
-      <c r="E26" s="25"/>
-      <c r="F26" s="25"/>
-      <c r="G26" s="25"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="20"/>
+      <c r="F26" s="20"/>
+      <c r="G26" s="20"/>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B27" s="25"/>
-      <c r="C27" s="25"/>
-      <c r="D27" s="25"/>
-      <c r="E27" s="25"/>
-      <c r="F27" s="25"/>
-      <c r="G27" s="25"/>
+      <c r="B27" s="20"/>
+      <c r="C27" s="20"/>
+      <c r="D27" s="20"/>
+      <c r="E27" s="20"/>
+      <c r="F27" s="20"/>
+      <c r="G27" s="20"/>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B28" s="25"/>
-      <c r="C28" s="25"/>
-      <c r="D28" s="25"/>
-      <c r="E28" s="25"/>
-      <c r="F28" s="25"/>
-      <c r="G28" s="25"/>
+      <c r="B28" s="20"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="20"/>
+      <c r="F28" s="20"/>
+      <c r="G28" s="20"/>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B29" s="25"/>
-      <c r="C29" s="25"/>
-      <c r="D29" s="25"/>
-      <c r="E29" s="25"/>
-      <c r="F29" s="25"/>
-      <c r="G29" s="25"/>
+      <c r="B29" s="20"/>
+      <c r="C29" s="20"/>
+      <c r="D29" s="20"/>
+      <c r="E29" s="20"/>
+      <c r="F29" s="20"/>
+      <c r="G29" s="20"/>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B30" s="26"/>
-      <c r="C30" s="26"/>
-      <c r="D30" s="26"/>
-      <c r="E30" s="26"/>
-      <c r="F30" s="26" t="s">
+      <c r="B30" s="21"/>
+      <c r="C30" s="21"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="21"/>
+      <c r="F30" s="21" t="s">
         <v>185</v>
       </c>
-      <c r="G30" s="27">
+      <c r="G30" s="22">
         <f>SUM(G23:G29)</f>
         <v>1920</v>
       </c>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B31" s="26"/>
-      <c r="C31" s="26"/>
-      <c r="D31" s="26"/>
-      <c r="E31" s="26"/>
-      <c r="F31" s="26" t="s">
+      <c r="B31" s="21"/>
+      <c r="C31" s="21"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="21"/>
+      <c r="F31" s="21" t="s">
         <v>186</v>
       </c>
-      <c r="G31" s="27">
+      <c r="G31" s="22">
         <f>+F23+F24</f>
         <v>403.20000000000005</v>
       </c>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B32" s="26"/>
-      <c r="C32" s="26"/>
-      <c r="D32" s="26"/>
-      <c r="E32" s="26"/>
-      <c r="F32" s="26" t="s">
+      <c r="B32" s="21"/>
+      <c r="C32" s="21"/>
+      <c r="D32" s="21"/>
+      <c r="E32" s="21"/>
+      <c r="F32" s="21" t="s">
         <v>187</v>
       </c>
-      <c r="G32" s="27">
+      <c r="G32" s="22">
         <f>+G30+G31</f>
         <v>2323.1999999999998</v>
       </c>
@@ -5366,12 +4241,505 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L7"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H40" sqref="H40"/>
+      <selection activeCell="F21" sqref="F21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.5703125" style="2" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="48" t="s">
+        <v>262</v>
+      </c>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="49" t="s">
+        <v>79</v>
+      </c>
+      <c r="B2" s="50" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2" s="50" t="s">
+        <v>81</v>
+      </c>
+      <c r="D2" s="49" t="s">
+        <v>82</v>
+      </c>
+      <c r="E2" s="49" t="s">
+        <v>83</v>
+      </c>
+      <c r="F2" s="49" t="s">
+        <v>84</v>
+      </c>
+      <c r="G2" s="49" t="s">
+        <v>85</v>
+      </c>
+      <c r="H2" s="51" t="s">
+        <v>78</v>
+      </c>
+      <c r="I2" s="51" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="52">
+        <v>1</v>
+      </c>
+      <c r="B3" s="53" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="53" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="53" t="s">
+        <v>41</v>
+      </c>
+      <c r="E3" s="53" t="s">
+        <v>55</v>
+      </c>
+      <c r="F3" s="53" t="s">
+        <v>49</v>
+      </c>
+      <c r="G3" s="54" t="s">
+        <v>50</v>
+      </c>
+      <c r="H3" s="55" t="s">
+        <v>86</v>
+      </c>
+      <c r="I3" s="55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="52">
+        <v>2</v>
+      </c>
+      <c r="B4" s="53" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="53" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="53" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4" s="53" t="s">
+        <v>54</v>
+      </c>
+      <c r="F4" s="53" t="s">
+        <v>51</v>
+      </c>
+      <c r="G4" s="56" t="s">
+        <v>52</v>
+      </c>
+      <c r="H4" s="55" t="s">
+        <v>86</v>
+      </c>
+      <c r="I4" s="55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="52">
+        <v>3</v>
+      </c>
+      <c r="B5" s="53" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="53" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="53" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" s="53" t="s">
+        <v>53</v>
+      </c>
+      <c r="F5" s="53" t="s">
+        <v>56</v>
+      </c>
+      <c r="G5" s="56" t="s">
+        <v>57</v>
+      </c>
+      <c r="H5" s="55" t="s">
+        <v>86</v>
+      </c>
+      <c r="I5" s="55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="52">
+        <v>4</v>
+      </c>
+      <c r="B6" s="53" t="s">
+        <v>58</v>
+      </c>
+      <c r="C6" s="53" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" s="53" t="s">
+        <v>115</v>
+      </c>
+      <c r="F6" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="G6" s="56" t="s">
+        <v>60</v>
+      </c>
+      <c r="H6" s="55" t="s">
+        <v>86</v>
+      </c>
+      <c r="I6" s="55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="52">
+        <v>5</v>
+      </c>
+      <c r="B7" s="53" t="s">
+        <v>59</v>
+      </c>
+      <c r="C7" s="53" t="s">
+        <v>116</v>
+      </c>
+      <c r="D7" s="53" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7" s="53" t="s">
+        <v>66</v>
+      </c>
+      <c r="F7" s="53" t="s">
+        <v>67</v>
+      </c>
+      <c r="G7" s="56" t="s">
+        <v>61</v>
+      </c>
+      <c r="H7" s="55" t="s">
+        <v>86</v>
+      </c>
+      <c r="I7" s="55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="52">
+        <v>6</v>
+      </c>
+      <c r="B8" s="53" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="53" t="s">
+        <v>117</v>
+      </c>
+      <c r="D8" s="53" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" s="53" t="s">
+        <v>68</v>
+      </c>
+      <c r="F8" s="53" t="s">
+        <v>69</v>
+      </c>
+      <c r="G8" s="56" t="s">
+        <v>62</v>
+      </c>
+      <c r="H8" s="55" t="s">
+        <v>86</v>
+      </c>
+      <c r="I8" s="55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="52">
+        <v>7</v>
+      </c>
+      <c r="B9" s="53" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="53" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="53" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" s="53" t="s">
+        <v>71</v>
+      </c>
+      <c r="F9" s="53" t="s">
+        <v>72</v>
+      </c>
+      <c r="G9" s="56" t="s">
+        <v>63</v>
+      </c>
+      <c r="H9" s="55" t="s">
+        <v>86</v>
+      </c>
+      <c r="I9" s="55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="52">
+        <v>8</v>
+      </c>
+      <c r="B10" s="53" t="s">
+        <v>118</v>
+      </c>
+      <c r="C10" s="53" t="s">
+        <v>119</v>
+      </c>
+      <c r="D10" s="53" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10" s="53" t="s">
+        <v>73</v>
+      </c>
+      <c r="F10" s="53" t="s">
+        <v>74</v>
+      </c>
+      <c r="G10" s="56" t="s">
+        <v>64</v>
+      </c>
+      <c r="H10" s="55" t="s">
+        <v>86</v>
+      </c>
+      <c r="I10" s="55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="52">
+        <v>9</v>
+      </c>
+      <c r="B11" s="53" t="s">
+        <v>120</v>
+      </c>
+      <c r="C11" s="53" t="s">
+        <v>121</v>
+      </c>
+      <c r="D11" s="53" t="s">
+        <v>94</v>
+      </c>
+      <c r="E11" s="53" t="s">
+        <v>75</v>
+      </c>
+      <c r="F11" s="53" t="s">
+        <v>76</v>
+      </c>
+      <c r="G11" s="56" t="s">
+        <v>65</v>
+      </c>
+      <c r="H11" s="55" t="s">
+        <v>86</v>
+      </c>
+      <c r="I11" s="55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="52">
+        <v>10</v>
+      </c>
+      <c r="B12" s="53" t="s">
+        <v>89</v>
+      </c>
+      <c r="C12" s="53" t="s">
+        <v>88</v>
+      </c>
+      <c r="D12" s="53" t="s">
+        <v>90</v>
+      </c>
+      <c r="E12" s="53" t="s">
+        <v>95</v>
+      </c>
+      <c r="F12" s="53" t="s">
+        <v>96</v>
+      </c>
+      <c r="G12" s="54" t="s">
+        <v>97</v>
+      </c>
+      <c r="H12" s="55" t="s">
+        <v>87</v>
+      </c>
+      <c r="I12" s="55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="52">
+        <v>11</v>
+      </c>
+      <c r="B13" s="53" t="s">
+        <v>98</v>
+      </c>
+      <c r="C13" s="53" t="s">
+        <v>99</v>
+      </c>
+      <c r="D13" s="53" t="s">
+        <v>91</v>
+      </c>
+      <c r="E13" s="53" t="s">
+        <v>100</v>
+      </c>
+      <c r="F13" s="53" t="s">
+        <v>101</v>
+      </c>
+      <c r="G13" s="56" t="s">
+        <v>102</v>
+      </c>
+      <c r="H13" s="55" t="s">
+        <v>87</v>
+      </c>
+      <c r="I13" s="55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="52">
+        <v>13</v>
+      </c>
+      <c r="B14" s="53" t="s">
+        <v>103</v>
+      </c>
+      <c r="C14" s="53" t="s">
+        <v>104</v>
+      </c>
+      <c r="D14" s="53" t="s">
+        <v>93</v>
+      </c>
+      <c r="E14" s="53" t="s">
+        <v>105</v>
+      </c>
+      <c r="F14" s="53" t="s">
+        <v>106</v>
+      </c>
+      <c r="G14" s="56" t="s">
+        <v>107</v>
+      </c>
+      <c r="H14" s="55" t="s">
+        <v>87</v>
+      </c>
+      <c r="I14" s="55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="52">
+        <v>14</v>
+      </c>
+      <c r="B15" s="53" t="s">
+        <v>108</v>
+      </c>
+      <c r="C15" s="53" t="s">
+        <v>109</v>
+      </c>
+      <c r="D15" s="53" t="s">
+        <v>92</v>
+      </c>
+      <c r="E15" s="53" t="s">
+        <v>110</v>
+      </c>
+      <c r="F15" s="53" t="s">
+        <v>111</v>
+      </c>
+      <c r="G15" s="56" t="s">
+        <v>112</v>
+      </c>
+      <c r="H15" s="55" t="s">
+        <v>87</v>
+      </c>
+      <c r="I15" s="55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="52">
+        <v>15</v>
+      </c>
+      <c r="B16" s="53" t="s">
+        <v>58</v>
+      </c>
+      <c r="C16" s="53" t="s">
+        <v>39</v>
+      </c>
+      <c r="D16" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="E16" s="53" t="s">
+        <v>115</v>
+      </c>
+      <c r="F16" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="G16" s="56" t="s">
+        <v>60</v>
+      </c>
+      <c r="H16" s="55" t="s">
+        <v>87</v>
+      </c>
+      <c r="I16" s="55">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:I1"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="G3" r:id="rId1"/>
+    <hyperlink ref="G4" r:id="rId2"/>
+    <hyperlink ref="G5" r:id="rId3"/>
+    <hyperlink ref="G6" r:id="rId4"/>
+    <hyperlink ref="G7" r:id="rId5"/>
+    <hyperlink ref="G8" r:id="rId6"/>
+    <hyperlink ref="G9" r:id="rId7"/>
+    <hyperlink ref="G10" r:id="rId8"/>
+    <hyperlink ref="G11" r:id="rId9"/>
+    <hyperlink ref="G12" r:id="rId10"/>
+    <hyperlink ref="G13" r:id="rId11"/>
+    <hyperlink ref="G14" r:id="rId12"/>
+    <hyperlink ref="G15" r:id="rId13"/>
+    <hyperlink ref="G16" r:id="rId14"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L11"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection sqref="A1:L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5380,195 +4748,952 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="48" t="s">
         <v>205</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
-      <c r="J1" s="53"/>
-      <c r="K1" s="53"/>
-      <c r="L1" s="53"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="48"/>
+      <c r="L1" s="48"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="50" t="s">
         <v>200</v>
       </c>
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="50" t="s">
         <v>207</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="50" t="s">
         <v>203</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="50" t="s">
         <v>190</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="50" t="s">
         <v>191</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="50" t="s">
         <v>192</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="H2" s="50" t="s">
         <v>193</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="I2" s="50" t="s">
         <v>194</v>
       </c>
-      <c r="J2" s="11" t="s">
+      <c r="J2" s="50" t="s">
         <v>195</v>
       </c>
-      <c r="K2" s="32" t="s">
+      <c r="K2" s="50" t="s">
         <v>198</v>
       </c>
-      <c r="L2" s="32" t="s">
+      <c r="L2" s="50" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="33">
+      <c r="A3" s="53">
         <v>1</v>
       </c>
-      <c r="B3" s="33" t="s">
+      <c r="B3" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="29">
+      <c r="C3" s="53">
         <v>100</v>
       </c>
-      <c r="D3" s="30">
+      <c r="D3" s="53">
         <v>2</v>
       </c>
-      <c r="E3" s="30">
+      <c r="E3" s="53">
         <v>6</v>
       </c>
-      <c r="F3" s="29">
+      <c r="F3" s="58">
         <v>110</v>
       </c>
-      <c r="G3" s="29">
+      <c r="G3" s="57">
         <v>138.6</v>
       </c>
-      <c r="H3" s="29">
+      <c r="H3" s="57">
         <v>660</v>
       </c>
-      <c r="I3" s="31">
+      <c r="I3" s="57">
         <f>+G3+H3</f>
         <v>798.6</v>
       </c>
-      <c r="J3" s="29">
+      <c r="J3" s="53">
         <v>102</v>
       </c>
-      <c r="K3" s="33">
+      <c r="K3" s="53">
         <v>5</v>
       </c>
-      <c r="L3" s="33" t="s">
+      <c r="L3" s="53" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="33">
+      <c r="A4" s="53">
         <v>1</v>
       </c>
-      <c r="B4" s="33" t="s">
+      <c r="B4" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="29">
+      <c r="C4" s="53">
         <v>100</v>
       </c>
-      <c r="D4" s="30">
+      <c r="D4" s="53">
         <v>3</v>
       </c>
-      <c r="E4" s="30">
+      <c r="E4" s="53">
         <v>6</v>
       </c>
-      <c r="F4" s="29">
+      <c r="F4" s="58">
         <v>210</v>
       </c>
-      <c r="G4" s="29">
+      <c r="G4" s="57">
         <v>264.60000000000002</v>
       </c>
-      <c r="H4" s="29">
+      <c r="H4" s="57">
         <v>1260</v>
       </c>
-      <c r="I4" s="31">
+      <c r="I4" s="57">
         <f>+G4+H4</f>
         <v>1524.6</v>
       </c>
-      <c r="J4" s="29">
+      <c r="J4" s="53">
         <v>102</v>
       </c>
-      <c r="K4" s="33">
+      <c r="K4" s="53">
         <v>5</v>
       </c>
-      <c r="L4" s="33" t="s">
+      <c r="L4" s="53" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="33">
+      <c r="A5" s="53">
         <v>1</v>
       </c>
-      <c r="B5" s="33" t="s">
+      <c r="B5" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="29">
+      <c r="C5" s="53">
         <v>100</v>
       </c>
-      <c r="D5" s="30">
+      <c r="D5" s="53">
         <v>2</v>
       </c>
-      <c r="E5" s="30"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="29"/>
-      <c r="H5" s="29"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="29"/>
-      <c r="K5" s="33"/>
-      <c r="L5" s="33"/>
+      <c r="E5" s="53"/>
+      <c r="F5" s="53"/>
+      <c r="G5" s="53"/>
+      <c r="H5" s="53"/>
+      <c r="I5" s="53"/>
+      <c r="J5" s="53"/>
+      <c r="K5" s="53"/>
+      <c r="L5" s="53"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="33"/>
-      <c r="B6" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="29"/>
-      <c r="D6" s="30">
+      <c r="A6" s="53"/>
+      <c r="B6" s="53"/>
+      <c r="C6" s="53"/>
+      <c r="D6" s="53">
         <v>3</v>
       </c>
-      <c r="E6" s="30"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="29"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="29"/>
-      <c r="K6" s="33"/>
-      <c r="L6" s="33"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="53"/>
+      <c r="G6" s="53"/>
+      <c r="H6" s="53"/>
+      <c r="I6" s="53"/>
+      <c r="J6" s="53"/>
+      <c r="K6" s="53"/>
+      <c r="L6" s="53"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="33"/>
-      <c r="B7" s="33"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="30"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="29"/>
-      <c r="I7" s="31"/>
-      <c r="J7" s="29"/>
-      <c r="K7" s="33"/>
-      <c r="L7" s="33"/>
+      <c r="A7" s="53"/>
+      <c r="B7" s="53"/>
+      <c r="C7" s="53"/>
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
+      <c r="K7" s="53"/>
+      <c r="L7" s="53"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="53"/>
+      <c r="B8" s="53"/>
+      <c r="C8" s="53"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="53"/>
+      <c r="G8" s="53"/>
+      <c r="H8" s="53"/>
+      <c r="I8" s="53"/>
+      <c r="J8" s="53"/>
+      <c r="K8" s="53"/>
+      <c r="L8" s="53"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="53"/>
+      <c r="B9" s="53"/>
+      <c r="C9" s="53"/>
+      <c r="D9" s="53"/>
+      <c r="E9" s="53"/>
+      <c r="F9" s="53"/>
+      <c r="G9" s="53"/>
+      <c r="H9" s="53"/>
+      <c r="I9" s="53"/>
+      <c r="J9" s="53"/>
+      <c r="K9" s="53"/>
+      <c r="L9" s="53"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="53"/>
+      <c r="B10" s="53"/>
+      <c r="C10" s="53"/>
+      <c r="D10" s="53"/>
+      <c r="E10" s="53"/>
+      <c r="F10" s="53"/>
+      <c r="G10" s="53"/>
+      <c r="H10" s="53"/>
+      <c r="I10" s="53"/>
+      <c r="J10" s="53"/>
+      <c r="K10" s="53"/>
+      <c r="L10" s="53"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="53"/>
+      <c r="B11" s="53"/>
+      <c r="C11" s="53"/>
+      <c r="D11" s="53"/>
+      <c r="E11" s="53"/>
+      <c r="F11" s="53"/>
+      <c r="G11" s="53"/>
+      <c r="H11" s="53"/>
+      <c r="I11" s="53"/>
+      <c r="J11" s="53"/>
+      <c r="K11" s="53"/>
+      <c r="L11" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:L1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N41"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="6.28515625" customWidth="1"/>
+    <col min="9" max="9" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="2.28515625" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" style="63" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="46.28515625" style="63" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="64" t="s">
+        <v>218</v>
+      </c>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="64"/>
+      <c r="K1" s="64"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="65" t="s">
+        <v>219</v>
+      </c>
+      <c r="B2" s="66" t="s">
+        <v>220</v>
+      </c>
+      <c r="C2" s="65" t="s">
+        <v>260</v>
+      </c>
+      <c r="D2" s="65" t="s">
+        <v>259</v>
+      </c>
+      <c r="E2" s="66" t="s">
+        <v>221</v>
+      </c>
+      <c r="F2" s="67" t="s">
+        <v>222</v>
+      </c>
+      <c r="G2" s="67" t="s">
+        <v>214</v>
+      </c>
+      <c r="H2" s="66" t="s">
+        <v>255</v>
+      </c>
+      <c r="I2" s="67" t="s">
+        <v>257</v>
+      </c>
+      <c r="J2" s="66" t="s">
+        <v>207</v>
+      </c>
+      <c r="K2" s="66" t="s">
+        <v>200</v>
+      </c>
+      <c r="M2" s="74">
+        <v>100</v>
+      </c>
+      <c r="N2" s="74" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="59">
+        <v>43789</v>
+      </c>
+      <c r="B3" s="60" t="s">
+        <v>223</v>
+      </c>
+      <c r="C3" s="62" t="s">
+        <v>86</v>
+      </c>
+      <c r="D3" s="62">
+        <v>1</v>
+      </c>
+      <c r="E3" s="60" t="s">
+        <v>224</v>
+      </c>
+      <c r="F3" s="61">
+        <v>4132.2299999999996</v>
+      </c>
+      <c r="G3" s="61"/>
+      <c r="H3" s="62">
+        <v>105</v>
+      </c>
+      <c r="I3" s="61">
+        <f>+F3-G3</f>
+        <v>4132.2299999999996</v>
+      </c>
+      <c r="J3" s="62" t="s">
+        <v>256</v>
+      </c>
+      <c r="K3" s="62">
+        <v>1153</v>
+      </c>
+      <c r="M3" s="68">
+        <v>101</v>
+      </c>
+      <c r="N3" s="69" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="59">
+        <v>43789</v>
+      </c>
+      <c r="B4" s="60" t="s">
+        <v>223</v>
+      </c>
+      <c r="C4" s="62" t="s">
+        <v>86</v>
+      </c>
+      <c r="D4" s="62">
+        <v>1</v>
+      </c>
+      <c r="E4" s="60" t="s">
+        <v>224</v>
+      </c>
+      <c r="F4" s="61"/>
+      <c r="G4" s="61">
+        <v>5000</v>
+      </c>
+      <c r="H4" s="62">
+        <v>102</v>
+      </c>
+      <c r="I4" s="61">
+        <f t="shared" ref="I4:I15" si="0">+F4-G4</f>
+        <v>-5000</v>
+      </c>
+      <c r="J4" s="62" t="s">
+        <v>256</v>
+      </c>
+      <c r="K4" s="62">
+        <v>1153</v>
+      </c>
+      <c r="M4" s="70">
+        <v>102</v>
+      </c>
+      <c r="N4" s="70" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="59">
+        <v>43789</v>
+      </c>
+      <c r="B5" s="60" t="s">
+        <v>223</v>
+      </c>
+      <c r="C5" s="62" t="s">
+        <v>86</v>
+      </c>
+      <c r="D5" s="62">
+        <v>1</v>
+      </c>
+      <c r="E5" s="60" t="s">
+        <v>224</v>
+      </c>
+      <c r="F5" s="61">
+        <v>867.77</v>
+      </c>
+      <c r="G5" s="61"/>
+      <c r="H5" s="62">
+        <v>204</v>
+      </c>
+      <c r="I5" s="61">
+        <f t="shared" si="0"/>
+        <v>867.77</v>
+      </c>
+      <c r="J5" s="62" t="s">
+        <v>256</v>
+      </c>
+      <c r="K5" s="62">
+        <v>1153</v>
+      </c>
+      <c r="M5" s="70">
+        <v>103</v>
+      </c>
+      <c r="N5" s="70" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="59">
+        <v>43790</v>
+      </c>
+      <c r="B6" s="60" t="s">
+        <v>258</v>
+      </c>
+      <c r="C6" s="62" t="s">
+        <v>87</v>
+      </c>
+      <c r="D6" s="62">
+        <v>4</v>
+      </c>
+      <c r="E6" s="60" t="s">
+        <v>261</v>
+      </c>
+      <c r="F6" s="61"/>
+      <c r="G6" s="61">
+        <v>85.71</v>
+      </c>
+      <c r="H6" s="62"/>
+      <c r="I6" s="61">
+        <f t="shared" si="0"/>
+        <v>-85.71</v>
+      </c>
+      <c r="J6" s="62" t="s">
+        <v>12</v>
+      </c>
+      <c r="K6" s="62">
+        <v>1154</v>
+      </c>
+      <c r="M6" s="70">
+        <v>104</v>
+      </c>
+      <c r="N6" s="70" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="59">
+        <v>43790</v>
+      </c>
+      <c r="B7" s="60" t="s">
+        <v>258</v>
+      </c>
+      <c r="C7" s="62" t="s">
+        <v>87</v>
+      </c>
+      <c r="D7" s="62">
+        <v>4</v>
+      </c>
+      <c r="E7" s="60" t="s">
+        <v>261</v>
+      </c>
+      <c r="F7" s="61">
+        <v>120</v>
+      </c>
+      <c r="G7" s="61"/>
+      <c r="H7" s="62">
+        <v>102</v>
+      </c>
+      <c r="I7" s="61">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+      <c r="J7" s="62" t="s">
+        <v>12</v>
+      </c>
+      <c r="K7" s="62">
+        <v>1154</v>
+      </c>
+      <c r="M7" s="68">
+        <v>105</v>
+      </c>
+      <c r="N7" s="68" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="59">
+        <v>43790</v>
+      </c>
+      <c r="B8" s="60" t="s">
+        <v>258</v>
+      </c>
+      <c r="C8" s="62" t="s">
+        <v>87</v>
+      </c>
+      <c r="D8" s="62">
+        <v>4</v>
+      </c>
+      <c r="E8" s="60" t="s">
+        <v>261</v>
+      </c>
+      <c r="F8" s="61"/>
+      <c r="G8" s="61">
+        <v>34.29</v>
+      </c>
+      <c r="H8" s="62">
+        <v>203</v>
+      </c>
+      <c r="I8" s="61">
+        <f t="shared" si="0"/>
+        <v>-34.29</v>
+      </c>
+      <c r="J8" s="62" t="s">
+        <v>12</v>
+      </c>
+      <c r="K8" s="62">
+        <v>1154</v>
+      </c>
+      <c r="M8" s="68">
+        <v>106</v>
+      </c>
+      <c r="N8" s="68" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="62"/>
+      <c r="B9" s="60"/>
+      <c r="C9" s="62"/>
+      <c r="D9" s="60"/>
+      <c r="E9" s="60"/>
+      <c r="F9" s="61"/>
+      <c r="G9" s="61"/>
+      <c r="H9" s="62"/>
+      <c r="I9" s="61">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J9" s="62"/>
+      <c r="K9" s="62">
+        <v>1155</v>
+      </c>
+      <c r="M9" s="68">
+        <v>107</v>
+      </c>
+      <c r="N9" s="68" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="62"/>
+      <c r="B10" s="60"/>
+      <c r="C10" s="62"/>
+      <c r="D10" s="60"/>
+      <c r="E10" s="60"/>
+      <c r="F10" s="61"/>
+      <c r="G10" s="61"/>
+      <c r="H10" s="62"/>
+      <c r="I10" s="61">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J10" s="62"/>
+      <c r="K10" s="62">
+        <v>1155</v>
+      </c>
+      <c r="M10" s="68">
+        <v>108</v>
+      </c>
+      <c r="N10" s="68" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="62"/>
+      <c r="B11" s="60"/>
+      <c r="C11" s="62"/>
+      <c r="D11" s="60"/>
+      <c r="E11" s="60"/>
+      <c r="F11" s="61"/>
+      <c r="G11" s="61"/>
+      <c r="H11" s="62"/>
+      <c r="I11" s="61">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J11" s="62"/>
+      <c r="K11" s="62"/>
+      <c r="M11" s="74">
+        <v>200</v>
+      </c>
+      <c r="N11" s="74" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="62"/>
+      <c r="B12" s="60"/>
+      <c r="C12" s="62"/>
+      <c r="D12" s="60"/>
+      <c r="E12" s="60"/>
+      <c r="F12" s="61"/>
+      <c r="G12" s="61"/>
+      <c r="H12" s="62"/>
+      <c r="I12" s="61">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J12" s="62"/>
+      <c r="K12" s="62"/>
+      <c r="M12" s="68">
+        <v>201</v>
+      </c>
+      <c r="N12" s="68" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="62"/>
+      <c r="B13" s="60"/>
+      <c r="C13" s="62"/>
+      <c r="D13" s="60"/>
+      <c r="E13" s="60"/>
+      <c r="F13" s="61"/>
+      <c r="G13" s="61"/>
+      <c r="H13" s="62"/>
+      <c r="I13" s="61">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J13" s="62"/>
+      <c r="K13" s="62"/>
+      <c r="M13" s="70">
+        <v>202</v>
+      </c>
+      <c r="N13" s="70" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="62"/>
+      <c r="B14" s="60"/>
+      <c r="C14" s="62"/>
+      <c r="D14" s="60"/>
+      <c r="E14" s="60"/>
+      <c r="F14" s="61"/>
+      <c r="G14" s="61"/>
+      <c r="H14" s="62"/>
+      <c r="I14" s="61">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J14" s="62"/>
+      <c r="K14" s="62"/>
+      <c r="M14" s="70">
+        <v>203</v>
+      </c>
+      <c r="N14" s="70" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="63"/>
+      <c r="B15" s="63"/>
+      <c r="C15" s="73"/>
+      <c r="D15" s="63"/>
+      <c r="E15" s="63"/>
+      <c r="F15" s="71">
+        <f>SUM(F3:F14)</f>
+        <v>5120</v>
+      </c>
+      <c r="G15" s="71">
+        <f>SUM(G3:G14)</f>
+        <v>5120</v>
+      </c>
+      <c r="H15" s="72"/>
+      <c r="I15" s="71">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J15" s="63"/>
+      <c r="K15" s="63"/>
+      <c r="M15" s="70">
+        <v>204</v>
+      </c>
+      <c r="N15" s="70" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M16" s="70">
+        <v>205</v>
+      </c>
+      <c r="N16" s="70" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="17" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M17" s="70">
+        <v>206</v>
+      </c>
+      <c r="N17" s="70" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="18" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M18" s="68">
+        <v>208</v>
+      </c>
+      <c r="N18" s="68" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="19" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M19" s="68">
+        <v>209</v>
+      </c>
+      <c r="N19" s="68" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="20" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M20" s="68">
+        <v>210</v>
+      </c>
+      <c r="N20" s="69" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="21" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M21" s="74">
+        <v>300</v>
+      </c>
+      <c r="N21" s="74" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="22" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M22" s="68">
+        <v>301</v>
+      </c>
+      <c r="N22" s="69" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="23" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M23" s="68">
+        <v>302</v>
+      </c>
+      <c r="N23" s="68" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="24" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M24" s="68">
+        <v>303</v>
+      </c>
+      <c r="N24" s="69" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="25" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M25" s="68">
+        <v>304</v>
+      </c>
+      <c r="N25" s="68" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="26" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M26" s="68">
+        <v>305</v>
+      </c>
+      <c r="N26" s="68" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="27" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M27" s="74">
+        <v>400</v>
+      </c>
+      <c r="N27" s="74" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="28" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M28" s="70">
+        <v>401</v>
+      </c>
+      <c r="N28" s="70" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="29" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M29" s="68">
+        <v>402</v>
+      </c>
+      <c r="N29" s="68" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="30" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M30" s="68">
+        <v>403</v>
+      </c>
+      <c r="N30" s="68" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="31" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M31" s="74">
+        <v>500</v>
+      </c>
+      <c r="N31" s="74" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="32" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M32" s="70">
+        <v>501</v>
+      </c>
+      <c r="N32" s="70" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="33" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M33" s="68">
+        <v>502</v>
+      </c>
+      <c r="N33" s="68" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="34" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M34" s="70">
+        <v>503</v>
+      </c>
+      <c r="N34" s="70" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="35" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M35" s="70">
+        <v>506</v>
+      </c>
+      <c r="N35" s="70" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="36" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M36" s="70">
+        <v>507</v>
+      </c>
+      <c r="N36" s="70" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="37" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M37" s="68">
+        <v>508</v>
+      </c>
+      <c r="N37" s="68" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="38" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M38" s="70">
+        <v>509</v>
+      </c>
+      <c r="N38" s="70" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="39" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M39" s="70">
+        <v>513</v>
+      </c>
+      <c r="N39" s="70" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="40" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M40" s="68">
+        <v>515</v>
+      </c>
+      <c r="N40" s="68" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="41" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M41" s="68">
+        <v>516</v>
+      </c>
+      <c r="N41" s="68" t="s">
+        <v>150</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:K1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>